--- a/Literature_overview_all_Stand08_07_2024.xlsx
+++ b/Literature_overview_all_Stand08_07_2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D765B-CE38-4016-BB2C-E1415670B3E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF87299-A6AE-4B1C-987C-FBDDBE443F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -7579,7 +7579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7751,13 +7751,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -8048,10 +8042,10 @@
   <dimension ref="A1:CK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8091,8 +8085,7 @@
     <col min="52" max="52" width="125.7109375" style="2" customWidth="1"/>
     <col min="53" max="53" width="18.7109375" style="2" customWidth="1"/>
     <col min="54" max="54" width="20.42578125" style="2" customWidth="1"/>
-    <col min="55" max="87" width="9.140625" style="59"/>
-    <col min="88" max="16384" width="9.140625" style="2"/>
+    <col min="55" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8414,39 +8407,39 @@
       <c r="BB2" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="59"/>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="59"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
       <c r="CK2" s="2"/>
     </row>
@@ -8599,39 +8592,39 @@
       <c r="AZ3" s="9"/>
       <c r="BA3" s="9"/>
       <c r="BB3" s="9"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="59"/>
-      <c r="BO3" s="59"/>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59"/>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="59"/>
-      <c r="BV3" s="59"/>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="59"/>
-      <c r="CB3" s="59"/>
-      <c r="CC3" s="59"/>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="59"/>
-      <c r="CG3" s="59"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="59"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
       <c r="CJ3" s="2"/>
       <c r="CK3" s="2"/>
     </row>
@@ -8784,39 +8777,39 @@
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9"/>
       <c r="BB4" s="9"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
     </row>
@@ -8913,39 +8906,39 @@
       <c r="AV5" s="13"/>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
     </row>
@@ -9086,39 +9079,39 @@
       </c>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59"/>
-      <c r="CC6" s="59"/>
-      <c r="CD6" s="59"/>
-      <c r="CE6" s="59"/>
-      <c r="CF6" s="59"/>
-      <c r="CG6" s="59"/>
-      <c r="CH6" s="59"/>
-      <c r="CI6" s="59"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
       <c r="CJ6" s="2"/>
       <c r="CK6" s="2"/>
     </row>
@@ -9215,39 +9208,39 @@
       <c r="AV7" s="13"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
-      <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
-      <c r="BL7" s="59"/>
-      <c r="BM7" s="59"/>
-      <c r="BN7" s="59"/>
-      <c r="BO7" s="59"/>
-      <c r="BP7" s="59"/>
-      <c r="BQ7" s="59"/>
-      <c r="BR7" s="59"/>
-      <c r="BS7" s="59"/>
-      <c r="BT7" s="59"/>
-      <c r="BU7" s="59"/>
-      <c r="BV7" s="59"/>
-      <c r="BW7" s="59"/>
-      <c r="BX7" s="59"/>
-      <c r="BY7" s="59"/>
-      <c r="BZ7" s="59"/>
-      <c r="CA7" s="59"/>
-      <c r="CB7" s="59"/>
-      <c r="CC7" s="59"/>
-      <c r="CD7" s="59"/>
-      <c r="CE7" s="59"/>
-      <c r="CF7" s="59"/>
-      <c r="CG7" s="59"/>
-      <c r="CH7" s="59"/>
-      <c r="CI7" s="59"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
       <c r="CJ7" s="2"/>
       <c r="CK7" s="2"/>
     </row>
@@ -9353,39 +9346,39 @@
       <c r="BA8" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
-      <c r="BF8" s="59"/>
-      <c r="BG8" s="59"/>
-      <c r="BH8" s="59"/>
-      <c r="BI8" s="59"/>
-      <c r="BJ8" s="59"/>
-      <c r="BK8" s="59"/>
-      <c r="BL8" s="59"/>
-      <c r="BM8" s="59"/>
-      <c r="BN8" s="59"/>
-      <c r="BO8" s="59"/>
-      <c r="BP8" s="59"/>
-      <c r="BQ8" s="59"/>
-      <c r="BR8" s="59"/>
-      <c r="BS8" s="59"/>
-      <c r="BT8" s="59"/>
-      <c r="BU8" s="59"/>
-      <c r="BV8" s="59"/>
-      <c r="BW8" s="59"/>
-      <c r="BX8" s="59"/>
-      <c r="BY8" s="59"/>
-      <c r="BZ8" s="59"/>
-      <c r="CA8" s="59"/>
-      <c r="CB8" s="59"/>
-      <c r="CC8" s="59"/>
-      <c r="CD8" s="59"/>
-      <c r="CE8" s="59"/>
-      <c r="CF8" s="59"/>
-      <c r="CG8" s="59"/>
-      <c r="CH8" s="59"/>
-      <c r="CI8" s="59"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
       <c r="CJ8" s="2"/>
       <c r="CK8" s="2"/>
     </row>
@@ -9530,43 +9523,43 @@
       <c r="BB9" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="59"/>
-      <c r="BF9" s="59"/>
-      <c r="BG9" s="59"/>
-      <c r="BH9" s="59"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="59"/>
-      <c r="BK9" s="59"/>
-      <c r="BL9" s="59"/>
-      <c r="BM9" s="59"/>
-      <c r="BN9" s="59"/>
-      <c r="BO9" s="59"/>
-      <c r="BP9" s="59"/>
-      <c r="BQ9" s="59"/>
-      <c r="BR9" s="59"/>
-      <c r="BS9" s="59"/>
-      <c r="BT9" s="59"/>
-      <c r="BU9" s="59"/>
-      <c r="BV9" s="59"/>
-      <c r="BW9" s="59"/>
-      <c r="BX9" s="59"/>
-      <c r="BY9" s="59"/>
-      <c r="BZ9" s="59"/>
-      <c r="CA9" s="59"/>
-      <c r="CB9" s="59"/>
-      <c r="CC9" s="59"/>
-      <c r="CD9" s="59"/>
-      <c r="CE9" s="59"/>
-      <c r="CF9" s="59"/>
-      <c r="CG9" s="59"/>
-      <c r="CH9" s="59"/>
-      <c r="CI9" s="59"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
     </row>
-    <row r="10" spans="1:89" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>898</v>
       </c>
@@ -9689,39 +9682,39 @@
       </c>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="59"/>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="59"/>
-      <c r="BK10" s="59"/>
-      <c r="BL10" s="59"/>
-      <c r="BM10" s="59"/>
-      <c r="BN10" s="59"/>
-      <c r="BO10" s="59"/>
-      <c r="BP10" s="59"/>
-      <c r="BQ10" s="59"/>
-      <c r="BR10" s="59"/>
-      <c r="BS10" s="59"/>
-      <c r="BT10" s="59"/>
-      <c r="BU10" s="59"/>
-      <c r="BV10" s="59"/>
-      <c r="BW10" s="59"/>
-      <c r="BX10" s="59"/>
-      <c r="BY10" s="59"/>
-      <c r="BZ10" s="59"/>
-      <c r="CA10" s="59"/>
-      <c r="CB10" s="59"/>
-      <c r="CC10" s="59"/>
-      <c r="CD10" s="59"/>
-      <c r="CE10" s="59"/>
-      <c r="CF10" s="59"/>
-      <c r="CG10" s="59"/>
-      <c r="CH10" s="59"/>
-      <c r="CI10" s="59"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
     </row>
@@ -9858,39 +9851,39 @@
       <c r="AZ11" s="57" t="s">
         <v>960</v>
       </c>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="59"/>
-      <c r="BG11" s="59"/>
-      <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="59"/>
-      <c r="BK11" s="59"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="59"/>
-      <c r="BN11" s="59"/>
-      <c r="BO11" s="59"/>
-      <c r="BP11" s="59"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="59"/>
-      <c r="BS11" s="59"/>
-      <c r="BT11" s="59"/>
-      <c r="BU11" s="59"/>
-      <c r="BV11" s="59"/>
-      <c r="BW11" s="59"/>
-      <c r="BX11" s="59"/>
-      <c r="BY11" s="59"/>
-      <c r="BZ11" s="59"/>
-      <c r="CA11" s="59"/>
-      <c r="CB11" s="59"/>
-      <c r="CC11" s="59"/>
-      <c r="CD11" s="59"/>
-      <c r="CE11" s="59"/>
-      <c r="CF11" s="59"/>
-      <c r="CG11" s="59"/>
-      <c r="CH11" s="59"/>
-      <c r="CI11" s="59"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
     </row>
@@ -10001,39 +9994,39 @@
       </c>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
-      <c r="BP12" s="59"/>
-      <c r="BQ12" s="59"/>
-      <c r="BR12" s="59"/>
-      <c r="BS12" s="59"/>
-      <c r="BT12" s="59"/>
-      <c r="BU12" s="59"/>
-      <c r="BV12" s="59"/>
-      <c r="BW12" s="59"/>
-      <c r="BX12" s="59"/>
-      <c r="BY12" s="59"/>
-      <c r="BZ12" s="59"/>
-      <c r="CA12" s="59"/>
-      <c r="CB12" s="59"/>
-      <c r="CC12" s="59"/>
-      <c r="CD12" s="59"/>
-      <c r="CE12" s="59"/>
-      <c r="CF12" s="59"/>
-      <c r="CG12" s="59"/>
-      <c r="CH12" s="59"/>
-      <c r="CI12" s="59"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
     </row>
@@ -10164,39 +10157,39 @@
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
-      <c r="BP13" s="59"/>
-      <c r="BQ13" s="59"/>
-      <c r="BR13" s="59"/>
-      <c r="BS13" s="59"/>
-      <c r="BT13" s="59"/>
-      <c r="BU13" s="59"/>
-      <c r="BV13" s="59"/>
-      <c r="BW13" s="59"/>
-      <c r="BX13" s="59"/>
-      <c r="BY13" s="59"/>
-      <c r="BZ13" s="59"/>
-      <c r="CA13" s="59"/>
-      <c r="CB13" s="59"/>
-      <c r="CC13" s="59"/>
-      <c r="CD13" s="59"/>
-      <c r="CE13" s="59"/>
-      <c r="CF13" s="59"/>
-      <c r="CG13" s="59"/>
-      <c r="CH13" s="59"/>
-      <c r="CI13" s="59"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
     </row>
@@ -10296,44 +10289,44 @@
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
       <c r="AY14" s="9"/>
-      <c r="AZ14" s="64" t="s">
+      <c r="AZ14" s="62" t="s">
         <v>964</v>
       </c>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
-      <c r="BO14" s="59"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="59"/>
-      <c r="BR14" s="59"/>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="59"/>
-      <c r="BU14" s="59"/>
-      <c r="BV14" s="59"/>
-      <c r="BW14" s="59"/>
-      <c r="BX14" s="59"/>
-      <c r="BY14" s="59"/>
-      <c r="BZ14" s="59"/>
-      <c r="CA14" s="59"/>
-      <c r="CB14" s="59"/>
-      <c r="CC14" s="59"/>
-      <c r="CD14" s="59"/>
-      <c r="CE14" s="59"/>
-      <c r="CF14" s="59"/>
-      <c r="CG14" s="59"/>
-      <c r="CH14" s="59"/>
-      <c r="CI14" s="59"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="2"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2"/>
+      <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
     </row>
@@ -10477,39 +10470,39 @@
       <c r="BB15" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="60"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="60"/>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="60"/>
-      <c r="BL15" s="60"/>
-      <c r="BM15" s="60"/>
-      <c r="BN15" s="60"/>
-      <c r="BO15" s="60"/>
-      <c r="BP15" s="60"/>
-      <c r="BQ15" s="60"/>
-      <c r="BR15" s="60"/>
-      <c r="BS15" s="60"/>
-      <c r="BT15" s="60"/>
-      <c r="BU15" s="60"/>
-      <c r="BV15" s="60"/>
-      <c r="BW15" s="60"/>
-      <c r="BX15" s="60"/>
-      <c r="BY15" s="60"/>
-      <c r="BZ15" s="60"/>
-      <c r="CA15" s="60"/>
-      <c r="CB15" s="60"/>
-      <c r="CC15" s="60"/>
-      <c r="CD15" s="60"/>
-      <c r="CE15" s="60"/>
-      <c r="CF15" s="60"/>
-      <c r="CG15" s="60"/>
-      <c r="CH15" s="60"/>
-      <c r="CI15" s="60"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="17"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="17"/>
+      <c r="BK15" s="17"/>
+      <c r="BL15" s="17"/>
+      <c r="BM15" s="17"/>
+      <c r="BN15" s="17"/>
+      <c r="BO15" s="17"/>
+      <c r="BP15" s="17"/>
+      <c r="BQ15" s="17"/>
+      <c r="BR15" s="17"/>
+      <c r="BS15" s="17"/>
+      <c r="BT15" s="17"/>
+      <c r="BU15" s="17"/>
+      <c r="BV15" s="17"/>
+      <c r="BW15" s="17"/>
+      <c r="BX15" s="17"/>
+      <c r="BY15" s="17"/>
+      <c r="BZ15" s="17"/>
+      <c r="CA15" s="17"/>
+      <c r="CB15" s="17"/>
+      <c r="CC15" s="17"/>
+      <c r="CD15" s="17"/>
+      <c r="CE15" s="17"/>
+      <c r="CF15" s="17"/>
+      <c r="CG15" s="17"/>
+      <c r="CH15" s="17"/>
+      <c r="CI15" s="17"/>
       <c r="CJ15" s="17"/>
       <c r="CK15" s="17"/>
     </row>
@@ -10605,39 +10598,39 @@
       <c r="AZ16" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="BC16" s="59"/>
-      <c r="BD16" s="59"/>
-      <c r="BE16" s="59"/>
-      <c r="BF16" s="59"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BK16" s="59"/>
-      <c r="BL16" s="59"/>
-      <c r="BM16" s="59"/>
-      <c r="BN16" s="59"/>
-      <c r="BO16" s="59"/>
-      <c r="BP16" s="59"/>
-      <c r="BQ16" s="59"/>
-      <c r="BR16" s="59"/>
-      <c r="BS16" s="59"/>
-      <c r="BT16" s="59"/>
-      <c r="BU16" s="59"/>
-      <c r="BV16" s="59"/>
-      <c r="BW16" s="59"/>
-      <c r="BX16" s="59"/>
-      <c r="BY16" s="59"/>
-      <c r="BZ16" s="59"/>
-      <c r="CA16" s="59"/>
-      <c r="CB16" s="59"/>
-      <c r="CC16" s="59"/>
-      <c r="CD16" s="59"/>
-      <c r="CE16" s="59"/>
-      <c r="CF16" s="59"/>
-      <c r="CG16" s="59"/>
-      <c r="CH16" s="59"/>
-      <c r="CI16" s="59"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+      <c r="BW16" s="2"/>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
+      <c r="BZ16" s="2"/>
+      <c r="CA16" s="2"/>
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+      <c r="CF16" s="2"/>
+      <c r="CG16" s="2"/>
+      <c r="CH16" s="2"/>
+      <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
     </row>
@@ -10771,46 +10764,46 @@
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="9"/>
-      <c r="AZ17" s="65"/>
+      <c r="AZ17" s="63"/>
       <c r="BA17" s="9" t="s">
         <v>1006</v>
       </c>
       <c r="BB17" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="59"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="59"/>
-      <c r="BR17" s="59"/>
-      <c r="BS17" s="59"/>
-      <c r="BT17" s="59"/>
-      <c r="BU17" s="59"/>
-      <c r="BV17" s="59"/>
-      <c r="BW17" s="59"/>
-      <c r="BX17" s="59"/>
-      <c r="BY17" s="59"/>
-      <c r="BZ17" s="59"/>
-      <c r="CA17" s="59"/>
-      <c r="CB17" s="59"/>
-      <c r="CC17" s="59"/>
-      <c r="CD17" s="59"/>
-      <c r="CE17" s="59"/>
-      <c r="CF17" s="59"/>
-      <c r="CG17" s="59"/>
-      <c r="CH17" s="59"/>
-      <c r="CI17" s="59"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="2"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="2"/>
+      <c r="CA17" s="2"/>
+      <c r="CB17" s="2"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="2"/>
+      <c r="CG17" s="2"/>
+      <c r="CH17" s="2"/>
+      <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
     </row>
@@ -10938,42 +10931,42 @@
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
-      <c r="AZ18" s="65" t="s">
+      <c r="AZ18" s="63" t="s">
         <v>966</v>
       </c>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="59"/>
-      <c r="BP18" s="59"/>
-      <c r="BQ18" s="59"/>
-      <c r="BR18" s="59"/>
-      <c r="BS18" s="59"/>
-      <c r="BT18" s="59"/>
-      <c r="BU18" s="59"/>
-      <c r="BV18" s="59"/>
-      <c r="BW18" s="59"/>
-      <c r="BX18" s="59"/>
-      <c r="BY18" s="59"/>
-      <c r="BZ18" s="59"/>
-      <c r="CA18" s="59"/>
-      <c r="CB18" s="59"/>
-      <c r="CC18" s="59"/>
-      <c r="CD18" s="59"/>
-      <c r="CE18" s="59"/>
-      <c r="CF18" s="59"/>
-      <c r="CG18" s="59"/>
-      <c r="CH18" s="59"/>
-      <c r="CI18" s="59"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
     </row>
@@ -11104,43 +11097,43 @@
       </c>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
-      <c r="BP19" s="59"/>
-      <c r="BQ19" s="59"/>
-      <c r="BR19" s="59"/>
-      <c r="BS19" s="59"/>
-      <c r="BT19" s="59"/>
-      <c r="BU19" s="59"/>
-      <c r="BV19" s="59"/>
-      <c r="BW19" s="59"/>
-      <c r="BX19" s="59"/>
-      <c r="BY19" s="59"/>
-      <c r="BZ19" s="59"/>
-      <c r="CA19" s="59"/>
-      <c r="CB19" s="59"/>
-      <c r="CC19" s="59"/>
-      <c r="CD19" s="59"/>
-      <c r="CE19" s="59"/>
-      <c r="CF19" s="59"/>
-      <c r="CG19" s="59"/>
-      <c r="CH19" s="59"/>
-      <c r="CI19" s="59"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
     </row>
-    <row r="20" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>883</v>
       </c>
@@ -11284,48 +11277,48 @@
         <v>620</v>
       </c>
       <c r="AY20" s="9"/>
-      <c r="AZ20" s="65" t="s">
+      <c r="AZ20" s="63" t="s">
         <v>969</v>
       </c>
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
-      <c r="BP20" s="59"/>
-      <c r="BQ20" s="59"/>
-      <c r="BR20" s="59"/>
-      <c r="BS20" s="59"/>
-      <c r="BT20" s="59"/>
-      <c r="BU20" s="59"/>
-      <c r="BV20" s="59"/>
-      <c r="BW20" s="59"/>
-      <c r="BX20" s="59"/>
-      <c r="BY20" s="59"/>
-      <c r="BZ20" s="59"/>
-      <c r="CA20" s="59"/>
-      <c r="CB20" s="59"/>
-      <c r="CC20" s="59"/>
-      <c r="CD20" s="59"/>
-      <c r="CE20" s="59"/>
-      <c r="CF20" s="59"/>
-      <c r="CG20" s="59"/>
-      <c r="CH20" s="59"/>
-      <c r="CI20" s="59"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
       <c r="CJ20" s="2"/>
       <c r="CK20" s="2"/>
     </row>
-    <row r="21" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>942</v>
       </c>
@@ -11424,43 +11417,43 @@
       <c r="BB21" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="59"/>
-      <c r="BR21" s="59"/>
-      <c r="BS21" s="59"/>
-      <c r="BT21" s="59"/>
-      <c r="BU21" s="59"/>
-      <c r="BV21" s="59"/>
-      <c r="BW21" s="59"/>
-      <c r="BX21" s="59"/>
-      <c r="BY21" s="59"/>
-      <c r="BZ21" s="59"/>
-      <c r="CA21" s="59"/>
-      <c r="CB21" s="59"/>
-      <c r="CC21" s="59"/>
-      <c r="CD21" s="59"/>
-      <c r="CE21" s="59"/>
-      <c r="CF21" s="59"/>
-      <c r="CG21" s="59"/>
-      <c r="CH21" s="59"/>
-      <c r="CI21" s="59"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
       <c r="CJ21" s="2"/>
       <c r="CK21" s="2"/>
     </row>
-    <row r="22" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>930</v>
       </c>
@@ -11568,39 +11561,39 @@
       <c r="BB22" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="60"/>
-      <c r="BG22" s="60"/>
-      <c r="BH22" s="60"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="60"/>
-      <c r="BK22" s="60"/>
-      <c r="BL22" s="60"/>
-      <c r="BM22" s="60"/>
-      <c r="BN22" s="60"/>
-      <c r="BO22" s="60"/>
-      <c r="BP22" s="60"/>
-      <c r="BQ22" s="60"/>
-      <c r="BR22" s="60"/>
-      <c r="BS22" s="60"/>
-      <c r="BT22" s="60"/>
-      <c r="BU22" s="60"/>
-      <c r="BV22" s="60"/>
-      <c r="BW22" s="60"/>
-      <c r="BX22" s="60"/>
-      <c r="BY22" s="60"/>
-      <c r="BZ22" s="60"/>
-      <c r="CA22" s="60"/>
-      <c r="CB22" s="60"/>
-      <c r="CC22" s="60"/>
-      <c r="CD22" s="60"/>
-      <c r="CE22" s="60"/>
-      <c r="CF22" s="60"/>
-      <c r="CG22" s="60"/>
-      <c r="CH22" s="60"/>
-      <c r="CI22" s="60"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
       <c r="CJ22" s="17"/>
       <c r="CK22" s="17"/>
     </row>
@@ -11719,39 +11712,39 @@
       <c r="AV23" s="13"/>
       <c r="AW23" s="13"/>
       <c r="AX23" s="13"/>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BK23" s="59"/>
-      <c r="BL23" s="59"/>
-      <c r="BM23" s="59"/>
-      <c r="BN23" s="59"/>
-      <c r="BO23" s="59"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="59"/>
-      <c r="BR23" s="59"/>
-      <c r="BS23" s="59"/>
-      <c r="BT23" s="59"/>
-      <c r="BU23" s="59"/>
-      <c r="BV23" s="59"/>
-      <c r="BW23" s="59"/>
-      <c r="BX23" s="59"/>
-      <c r="BY23" s="59"/>
-      <c r="BZ23" s="59"/>
-      <c r="CA23" s="59"/>
-      <c r="CB23" s="59"/>
-      <c r="CC23" s="59"/>
-      <c r="CD23" s="59"/>
-      <c r="CE23" s="59"/>
-      <c r="CF23" s="59"/>
-      <c r="CG23" s="59"/>
-      <c r="CH23" s="59"/>
-      <c r="CI23" s="59"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="2"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
       <c r="CJ23" s="2"/>
       <c r="CK23" s="2"/>
     </row>
@@ -11890,39 +11883,39 @@
       <c r="AZ24" s="12"/>
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
-      <c r="BN24" s="59"/>
-      <c r="BO24" s="59"/>
-      <c r="BP24" s="59"/>
-      <c r="BQ24" s="59"/>
-      <c r="BR24" s="59"/>
-      <c r="BS24" s="59"/>
-      <c r="BT24" s="59"/>
-      <c r="BU24" s="59"/>
-      <c r="BV24" s="59"/>
-      <c r="BW24" s="59"/>
-      <c r="BX24" s="59"/>
-      <c r="BY24" s="59"/>
-      <c r="BZ24" s="59"/>
-      <c r="CA24" s="59"/>
-      <c r="CB24" s="59"/>
-      <c r="CC24" s="59"/>
-      <c r="CD24" s="59"/>
-      <c r="CE24" s="59"/>
-      <c r="CF24" s="59"/>
-      <c r="CG24" s="59"/>
-      <c r="CH24" s="59"/>
-      <c r="CI24" s="59"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
       <c r="CJ24" s="2"/>
       <c r="CK24" s="2"/>
     </row>
@@ -12060,50 +12053,50 @@
       <c r="AW25" s="21"/>
       <c r="AX25" s="21"/>
       <c r="AY25" s="12"/>
-      <c r="AZ25" s="62" t="s">
+      <c r="AZ25" s="60" t="s">
         <v>971</v>
       </c>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="59"/>
-      <c r="BO25" s="59"/>
-      <c r="BP25" s="59"/>
-      <c r="BQ25" s="59"/>
-      <c r="BR25" s="59"/>
-      <c r="BS25" s="59"/>
-      <c r="BT25" s="59"/>
-      <c r="BU25" s="59"/>
-      <c r="BV25" s="59"/>
-      <c r="BW25" s="59"/>
-      <c r="BX25" s="59"/>
-      <c r="BY25" s="59"/>
-      <c r="BZ25" s="59"/>
-      <c r="CA25" s="59"/>
-      <c r="CB25" s="59"/>
-      <c r="CC25" s="59"/>
-      <c r="CD25" s="59"/>
-      <c r="CE25" s="59"/>
-      <c r="CF25" s="59"/>
-      <c r="CG25" s="59"/>
-      <c r="CH25" s="59"/>
-      <c r="CI25" s="59"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
       <c r="CJ25" s="2"/>
       <c r="CK25" s="2"/>
     </row>
-    <row r="26" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>874</v>
       </c>
@@ -12230,39 +12223,39 @@
       </c>
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
-      <c r="BP26" s="59"/>
-      <c r="BQ26" s="59"/>
-      <c r="BR26" s="59"/>
-      <c r="BS26" s="59"/>
-      <c r="BT26" s="59"/>
-      <c r="BU26" s="59"/>
-      <c r="BV26" s="59"/>
-      <c r="BW26" s="59"/>
-      <c r="BX26" s="59"/>
-      <c r="BY26" s="59"/>
-      <c r="BZ26" s="59"/>
-      <c r="CA26" s="59"/>
-      <c r="CB26" s="59"/>
-      <c r="CC26" s="59"/>
-      <c r="CD26" s="59"/>
-      <c r="CE26" s="59"/>
-      <c r="CF26" s="59"/>
-      <c r="CG26" s="59"/>
-      <c r="CH26" s="59"/>
-      <c r="CI26" s="59"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="2"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
       <c r="CJ26" s="2"/>
       <c r="CK26" s="2"/>
     </row>
@@ -12407,39 +12400,39 @@
       <c r="BB27" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="59"/>
-      <c r="BO27" s="59"/>
-      <c r="BP27" s="59"/>
-      <c r="BQ27" s="59"/>
-      <c r="BR27" s="59"/>
-      <c r="BS27" s="59"/>
-      <c r="BT27" s="59"/>
-      <c r="BU27" s="59"/>
-      <c r="BV27" s="59"/>
-      <c r="BW27" s="59"/>
-      <c r="BX27" s="59"/>
-      <c r="BY27" s="59"/>
-      <c r="BZ27" s="59"/>
-      <c r="CA27" s="59"/>
-      <c r="CB27" s="59"/>
-      <c r="CC27" s="59"/>
-      <c r="CD27" s="59"/>
-      <c r="CE27" s="59"/>
-      <c r="CF27" s="59"/>
-      <c r="CG27" s="59"/>
-      <c r="CH27" s="59"/>
-      <c r="CI27" s="59"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="2"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="2"/>
+      <c r="BY27" s="2"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="2"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
       <c r="CJ27" s="2"/>
       <c r="CK27" s="2"/>
     </row>
@@ -12577,48 +12570,48 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="9"/>
-      <c r="AZ28" s="65" t="s">
+      <c r="AZ28" s="63" t="s">
         <v>974</v>
       </c>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="59"/>
-      <c r="BJ28" s="59"/>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="59"/>
-      <c r="BO28" s="59"/>
-      <c r="BP28" s="59"/>
-      <c r="BQ28" s="59"/>
-      <c r="BR28" s="59"/>
-      <c r="BS28" s="59"/>
-      <c r="BT28" s="59"/>
-      <c r="BU28" s="59"/>
-      <c r="BV28" s="59"/>
-      <c r="BW28" s="59"/>
-      <c r="BX28" s="59"/>
-      <c r="BY28" s="59"/>
-      <c r="BZ28" s="59"/>
-      <c r="CA28" s="59"/>
-      <c r="CB28" s="59"/>
-      <c r="CC28" s="59"/>
-      <c r="CD28" s="59"/>
-      <c r="CE28" s="59"/>
-      <c r="CF28" s="59"/>
-      <c r="CG28" s="59"/>
-      <c r="CH28" s="59"/>
-      <c r="CI28" s="59"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
       <c r="CJ28" s="2"/>
       <c r="CK28" s="2"/>
     </row>
-    <row r="29" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>1184</v>
       </c>
@@ -12711,39 +12704,39 @@
       <c r="AZ29" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="BC29" s="59"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="59"/>
-      <c r="BP29" s="59"/>
-      <c r="BQ29" s="59"/>
-      <c r="BR29" s="59"/>
-      <c r="BS29" s="59"/>
-      <c r="BT29" s="59"/>
-      <c r="BU29" s="59"/>
-      <c r="BV29" s="59"/>
-      <c r="BW29" s="59"/>
-      <c r="BX29" s="59"/>
-      <c r="BY29" s="59"/>
-      <c r="BZ29" s="59"/>
-      <c r="CA29" s="59"/>
-      <c r="CB29" s="59"/>
-      <c r="CC29" s="59"/>
-      <c r="CD29" s="59"/>
-      <c r="CE29" s="59"/>
-      <c r="CF29" s="59"/>
-      <c r="CG29" s="59"/>
-      <c r="CH29" s="59"/>
-      <c r="CI29" s="59"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="2"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="2"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
       <c r="CJ29" s="2"/>
       <c r="CK29" s="2"/>
     </row>
@@ -12848,39 +12841,39 @@
         <v>431</v>
       </c>
       <c r="BB30" s="6"/>
-      <c r="BC30" s="59"/>
-      <c r="BD30" s="59"/>
-      <c r="BE30" s="59"/>
-      <c r="BF30" s="59"/>
-      <c r="BG30" s="59"/>
-      <c r="BH30" s="59"/>
-      <c r="BI30" s="59"/>
-      <c r="BJ30" s="59"/>
-      <c r="BK30" s="59"/>
-      <c r="BL30" s="59"/>
-      <c r="BM30" s="59"/>
-      <c r="BN30" s="59"/>
-      <c r="BO30" s="59"/>
-      <c r="BP30" s="59"/>
-      <c r="BQ30" s="59"/>
-      <c r="BR30" s="59"/>
-      <c r="BS30" s="59"/>
-      <c r="BT30" s="59"/>
-      <c r="BU30" s="59"/>
-      <c r="BV30" s="59"/>
-      <c r="BW30" s="59"/>
-      <c r="BX30" s="59"/>
-      <c r="BY30" s="59"/>
-      <c r="BZ30" s="59"/>
-      <c r="CA30" s="59"/>
-      <c r="CB30" s="59"/>
-      <c r="CC30" s="59"/>
-      <c r="CD30" s="59"/>
-      <c r="CE30" s="59"/>
-      <c r="CF30" s="59"/>
-      <c r="CG30" s="59"/>
-      <c r="CH30" s="59"/>
-      <c r="CI30" s="59"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
       <c r="CJ30" s="2"/>
       <c r="CK30" s="2"/>
     </row>
@@ -13025,39 +13018,39 @@
       <c r="BB31" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="BC31" s="59"/>
-      <c r="BD31" s="59"/>
-      <c r="BE31" s="59"/>
-      <c r="BF31" s="59"/>
-      <c r="BG31" s="59"/>
-      <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
-      <c r="BJ31" s="59"/>
-      <c r="BK31" s="59"/>
-      <c r="BL31" s="59"/>
-      <c r="BM31" s="59"/>
-      <c r="BN31" s="59"/>
-      <c r="BO31" s="59"/>
-      <c r="BP31" s="59"/>
-      <c r="BQ31" s="59"/>
-      <c r="BR31" s="59"/>
-      <c r="BS31" s="59"/>
-      <c r="BT31" s="59"/>
-      <c r="BU31" s="59"/>
-      <c r="BV31" s="59"/>
-      <c r="BW31" s="59"/>
-      <c r="BX31" s="59"/>
-      <c r="BY31" s="59"/>
-      <c r="BZ31" s="59"/>
-      <c r="CA31" s="59"/>
-      <c r="CB31" s="59"/>
-      <c r="CC31" s="59"/>
-      <c r="CD31" s="59"/>
-      <c r="CE31" s="59"/>
-      <c r="CF31" s="59"/>
-      <c r="CG31" s="59"/>
-      <c r="CH31" s="59"/>
-      <c r="CI31" s="59"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="2"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="2"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="2"/>
+      <c r="CI31" s="2"/>
       <c r="CJ31" s="2"/>
       <c r="CK31" s="2"/>
     </row>
@@ -13190,39 +13183,39 @@
       </c>
       <c r="BA32" s="6"/>
       <c r="BB32" s="6"/>
-      <c r="BC32" s="59"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="59"/>
-      <c r="BF32" s="59"/>
-      <c r="BG32" s="59"/>
-      <c r="BH32" s="59"/>
-      <c r="BI32" s="59"/>
-      <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="59"/>
-      <c r="BP32" s="59"/>
-      <c r="BQ32" s="59"/>
-      <c r="BR32" s="59"/>
-      <c r="BS32" s="59"/>
-      <c r="BT32" s="59"/>
-      <c r="BU32" s="59"/>
-      <c r="BV32" s="59"/>
-      <c r="BW32" s="59"/>
-      <c r="BX32" s="59"/>
-      <c r="BY32" s="59"/>
-      <c r="BZ32" s="59"/>
-      <c r="CA32" s="59"/>
-      <c r="CB32" s="59"/>
-      <c r="CC32" s="59"/>
-      <c r="CD32" s="59"/>
-      <c r="CE32" s="59"/>
-      <c r="CF32" s="59"/>
-      <c r="CG32" s="59"/>
-      <c r="CH32" s="59"/>
-      <c r="CI32" s="59"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="2"/>
+      <c r="BY32" s="2"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+      <c r="CF32" s="2"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
       <c r="CJ32" s="2"/>
       <c r="CK32" s="2"/>
     </row>
@@ -13323,39 +13316,39 @@
       </c>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
-      <c r="BC33" s="59"/>
-      <c r="BD33" s="59"/>
-      <c r="BE33" s="59"/>
-      <c r="BF33" s="59"/>
-      <c r="BG33" s="59"/>
-      <c r="BH33" s="59"/>
-      <c r="BI33" s="59"/>
-      <c r="BJ33" s="59"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="59"/>
-      <c r="BM33" s="59"/>
-      <c r="BN33" s="59"/>
-      <c r="BO33" s="59"/>
-      <c r="BP33" s="59"/>
-      <c r="BQ33" s="59"/>
-      <c r="BR33" s="59"/>
-      <c r="BS33" s="59"/>
-      <c r="BT33" s="59"/>
-      <c r="BU33" s="59"/>
-      <c r="BV33" s="59"/>
-      <c r="BW33" s="59"/>
-      <c r="BX33" s="59"/>
-      <c r="BY33" s="59"/>
-      <c r="BZ33" s="59"/>
-      <c r="CA33" s="59"/>
-      <c r="CB33" s="59"/>
-      <c r="CC33" s="59"/>
-      <c r="CD33" s="59"/>
-      <c r="CE33" s="59"/>
-      <c r="CF33" s="59"/>
-      <c r="CG33" s="59"/>
-      <c r="CH33" s="59"/>
-      <c r="CI33" s="59"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
       <c r="CJ33" s="2"/>
       <c r="CK33" s="2"/>
     </row>
@@ -13505,44 +13498,44 @@
         <v>620</v>
       </c>
       <c r="AY34" s="12"/>
-      <c r="AZ34" s="62" t="s">
+      <c r="AZ34" s="60" t="s">
         <v>977</v>
       </c>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
-      <c r="BC34" s="59"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="59"/>
-      <c r="BF34" s="59"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="59"/>
-      <c r="BM34" s="59"/>
-      <c r="BN34" s="59"/>
-      <c r="BO34" s="59"/>
-      <c r="BP34" s="59"/>
-      <c r="BQ34" s="59"/>
-      <c r="BR34" s="59"/>
-      <c r="BS34" s="59"/>
-      <c r="BT34" s="59"/>
-      <c r="BU34" s="59"/>
-      <c r="BV34" s="59"/>
-      <c r="BW34" s="59"/>
-      <c r="BX34" s="59"/>
-      <c r="BY34" s="59"/>
-      <c r="BZ34" s="59"/>
-      <c r="CA34" s="59"/>
-      <c r="CB34" s="59"/>
-      <c r="CC34" s="59"/>
-      <c r="CD34" s="59"/>
-      <c r="CE34" s="59"/>
-      <c r="CF34" s="59"/>
-      <c r="CG34" s="59"/>
-      <c r="CH34" s="59"/>
-      <c r="CI34" s="59"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
+      <c r="BW34" s="2"/>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
       <c r="CJ34" s="2"/>
       <c r="CK34" s="2"/>
     </row>
@@ -13694,46 +13687,46 @@
         <v>604</v>
       </c>
       <c r="AY35" s="9"/>
-      <c r="AZ35" s="65" t="s">
+      <c r="AZ35" s="63" t="s">
         <v>978</v>
       </c>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="BC35" s="59"/>
-      <c r="BD35" s="59"/>
-      <c r="BE35" s="59"/>
-      <c r="BF35" s="59"/>
-      <c r="BG35" s="59"/>
-      <c r="BH35" s="59"/>
-      <c r="BI35" s="59"/>
-      <c r="BJ35" s="59"/>
-      <c r="BK35" s="59"/>
-      <c r="BL35" s="59"/>
-      <c r="BM35" s="59"/>
-      <c r="BN35" s="59"/>
-      <c r="BO35" s="59"/>
-      <c r="BP35" s="59"/>
-      <c r="BQ35" s="59"/>
-      <c r="BR35" s="59"/>
-      <c r="BS35" s="59"/>
-      <c r="BT35" s="59"/>
-      <c r="BU35" s="59"/>
-      <c r="BV35" s="59"/>
-      <c r="BW35" s="59"/>
-      <c r="BX35" s="59"/>
-      <c r="BY35" s="59"/>
-      <c r="BZ35" s="59"/>
-      <c r="CA35" s="59"/>
-      <c r="CB35" s="59"/>
-      <c r="CC35" s="59"/>
-      <c r="CD35" s="59"/>
-      <c r="CE35" s="59"/>
-      <c r="CF35" s="59"/>
-      <c r="CG35" s="59"/>
-      <c r="CH35" s="59"/>
-      <c r="CI35" s="59"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
       <c r="CJ35" s="2"/>
       <c r="CK35" s="2"/>
     </row>
@@ -13849,46 +13842,46 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="9"/>
-      <c r="AZ36" s="65" t="s">
+      <c r="AZ36" s="63" t="s">
         <v>954</v>
       </c>
       <c r="BA36" s="9"/>
       <c r="BB36" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="BC36" s="59"/>
-      <c r="BD36" s="59"/>
-      <c r="BE36" s="59"/>
-      <c r="BF36" s="59"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="59"/>
-      <c r="BM36" s="59"/>
-      <c r="BN36" s="59"/>
-      <c r="BO36" s="59"/>
-      <c r="BP36" s="59"/>
-      <c r="BQ36" s="59"/>
-      <c r="BR36" s="59"/>
-      <c r="BS36" s="59"/>
-      <c r="BT36" s="59"/>
-      <c r="BU36" s="59"/>
-      <c r="BV36" s="59"/>
-      <c r="BW36" s="59"/>
-      <c r="BX36" s="59"/>
-      <c r="BY36" s="59"/>
-      <c r="BZ36" s="59"/>
-      <c r="CA36" s="59"/>
-      <c r="CB36" s="59"/>
-      <c r="CC36" s="59"/>
-      <c r="CD36" s="59"/>
-      <c r="CE36" s="59"/>
-      <c r="CF36" s="59"/>
-      <c r="CG36" s="59"/>
-      <c r="CH36" s="59"/>
-      <c r="CI36" s="59"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
       <c r="CJ36" s="2"/>
       <c r="CK36" s="2"/>
     </row>
@@ -14036,46 +14029,46 @@
         <v>604</v>
       </c>
       <c r="AY37" s="9"/>
-      <c r="AZ37" s="65" t="s">
+      <c r="AZ37" s="63" t="s">
         <v>979</v>
       </c>
       <c r="BA37" s="9"/>
       <c r="BB37" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="BC37" s="59"/>
-      <c r="BD37" s="59"/>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="59"/>
-      <c r="BM37" s="59"/>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="59"/>
-      <c r="BP37" s="59"/>
-      <c r="BQ37" s="59"/>
-      <c r="BR37" s="59"/>
-      <c r="BS37" s="59"/>
-      <c r="BT37" s="59"/>
-      <c r="BU37" s="59"/>
-      <c r="BV37" s="59"/>
-      <c r="BW37" s="59"/>
-      <c r="BX37" s="59"/>
-      <c r="BY37" s="59"/>
-      <c r="BZ37" s="59"/>
-      <c r="CA37" s="59"/>
-      <c r="CB37" s="59"/>
-      <c r="CC37" s="59"/>
-      <c r="CD37" s="59"/>
-      <c r="CE37" s="59"/>
-      <c r="CF37" s="59"/>
-      <c r="CG37" s="59"/>
-      <c r="CH37" s="59"/>
-      <c r="CI37" s="59"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="2"/>
+      <c r="BW37" s="2"/>
+      <c r="BX37" s="2"/>
+      <c r="BY37" s="2"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="2"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
       <c r="CJ37" s="2"/>
       <c r="CK37" s="2"/>
     </row>
@@ -14198,39 +14191,39 @@
       <c r="AZ38" s="57" t="s">
         <v>980</v>
       </c>
-      <c r="BC38" s="59"/>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="59"/>
-      <c r="BR38" s="59"/>
-      <c r="BS38" s="59"/>
-      <c r="BT38" s="59"/>
-      <c r="BU38" s="59"/>
-      <c r="BV38" s="59"/>
-      <c r="BW38" s="59"/>
-      <c r="BX38" s="59"/>
-      <c r="BY38" s="59"/>
-      <c r="BZ38" s="59"/>
-      <c r="CA38" s="59"/>
-      <c r="CB38" s="59"/>
-      <c r="CC38" s="59"/>
-      <c r="CD38" s="59"/>
-      <c r="CE38" s="59"/>
-      <c r="CF38" s="59"/>
-      <c r="CG38" s="59"/>
-      <c r="CH38" s="59"/>
-      <c r="CI38" s="59"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="2"/>
+      <c r="BW38" s="2"/>
+      <c r="BX38" s="2"/>
+      <c r="BY38" s="2"/>
+      <c r="BZ38" s="2"/>
+      <c r="CA38" s="2"/>
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="2"/>
+      <c r="CD38" s="2"/>
+      <c r="CE38" s="2"/>
+      <c r="CF38" s="2"/>
+      <c r="CG38" s="2"/>
+      <c r="CH38" s="2"/>
+      <c r="CI38" s="2"/>
       <c r="CJ38" s="2"/>
       <c r="CK38" s="2"/>
     </row>
@@ -14385,39 +14378,39 @@
       <c r="BB39" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="BC39" s="59"/>
-      <c r="BD39" s="59"/>
-      <c r="BE39" s="59"/>
-      <c r="BF39" s="59"/>
-      <c r="BG39" s="59"/>
-      <c r="BH39" s="59"/>
-      <c r="BI39" s="59"/>
-      <c r="BJ39" s="59"/>
-      <c r="BK39" s="59"/>
-      <c r="BL39" s="59"/>
-      <c r="BM39" s="59"/>
-      <c r="BN39" s="59"/>
-      <c r="BO39" s="59"/>
-      <c r="BP39" s="59"/>
-      <c r="BQ39" s="59"/>
-      <c r="BR39" s="59"/>
-      <c r="BS39" s="59"/>
-      <c r="BT39" s="59"/>
-      <c r="BU39" s="59"/>
-      <c r="BV39" s="59"/>
-      <c r="BW39" s="59"/>
-      <c r="BX39" s="59"/>
-      <c r="BY39" s="59"/>
-      <c r="BZ39" s="59"/>
-      <c r="CA39" s="59"/>
-      <c r="CB39" s="59"/>
-      <c r="CC39" s="59"/>
-      <c r="CD39" s="59"/>
-      <c r="CE39" s="59"/>
-      <c r="CF39" s="59"/>
-      <c r="CG39" s="59"/>
-      <c r="CH39" s="59"/>
-      <c r="CI39" s="59"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
       <c r="CJ39" s="2"/>
       <c r="CK39" s="2"/>
     </row>
@@ -14562,39 +14555,39 @@
         <v>160</v>
       </c>
       <c r="BB40" s="6"/>
-      <c r="BC40" s="59"/>
-      <c r="BD40" s="59"/>
-      <c r="BE40" s="59"/>
-      <c r="BF40" s="59"/>
-      <c r="BG40" s="59"/>
-      <c r="BH40" s="59"/>
-      <c r="BI40" s="59"/>
-      <c r="BJ40" s="59"/>
-      <c r="BK40" s="59"/>
-      <c r="BL40" s="59"/>
-      <c r="BM40" s="59"/>
-      <c r="BN40" s="59"/>
-      <c r="BO40" s="59"/>
-      <c r="BP40" s="59"/>
-      <c r="BQ40" s="59"/>
-      <c r="BR40" s="59"/>
-      <c r="BS40" s="59"/>
-      <c r="BT40" s="59"/>
-      <c r="BU40" s="59"/>
-      <c r="BV40" s="59"/>
-      <c r="BW40" s="59"/>
-      <c r="BX40" s="59"/>
-      <c r="BY40" s="59"/>
-      <c r="BZ40" s="59"/>
-      <c r="CA40" s="59"/>
-      <c r="CB40" s="59"/>
-      <c r="CC40" s="59"/>
-      <c r="CD40" s="59"/>
-      <c r="CE40" s="59"/>
-      <c r="CF40" s="59"/>
-      <c r="CG40" s="59"/>
-      <c r="CH40" s="59"/>
-      <c r="CI40" s="59"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
+      <c r="BW40" s="2"/>
+      <c r="BX40" s="2"/>
+      <c r="BY40" s="2"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="2"/>
+      <c r="CG40" s="2"/>
+      <c r="CH40" s="2"/>
+      <c r="CI40" s="2"/>
       <c r="CJ40" s="2"/>
       <c r="CK40" s="2"/>
     </row>
@@ -14693,39 +14686,39 @@
       </c>
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
-      <c r="BC41" s="59"/>
-      <c r="BD41" s="59"/>
-      <c r="BE41" s="59"/>
-      <c r="BF41" s="59"/>
-      <c r="BG41" s="59"/>
-      <c r="BH41" s="59"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="59"/>
-      <c r="BM41" s="59"/>
-      <c r="BN41" s="59"/>
-      <c r="BO41" s="59"/>
-      <c r="BP41" s="59"/>
-      <c r="BQ41" s="59"/>
-      <c r="BR41" s="59"/>
-      <c r="BS41" s="59"/>
-      <c r="BT41" s="59"/>
-      <c r="BU41" s="59"/>
-      <c r="BV41" s="59"/>
-      <c r="BW41" s="59"/>
-      <c r="BX41" s="59"/>
-      <c r="BY41" s="59"/>
-      <c r="BZ41" s="59"/>
-      <c r="CA41" s="59"/>
-      <c r="CB41" s="59"/>
-      <c r="CC41" s="59"/>
-      <c r="CD41" s="59"/>
-      <c r="CE41" s="59"/>
-      <c r="CF41" s="59"/>
-      <c r="CG41" s="59"/>
-      <c r="CH41" s="59"/>
-      <c r="CI41" s="59"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
+      <c r="BW41" s="2"/>
+      <c r="BX41" s="2"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="2"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
       <c r="CJ41" s="2"/>
       <c r="CK41" s="2"/>
     </row>
@@ -14856,39 +14849,39 @@
       <c r="BB42" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="BC42" s="59"/>
-      <c r="BD42" s="59"/>
-      <c r="BE42" s="59"/>
-      <c r="BF42" s="59"/>
-      <c r="BG42" s="59"/>
-      <c r="BH42" s="59"/>
-      <c r="BI42" s="59"/>
-      <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
-      <c r="BL42" s="59"/>
-      <c r="BM42" s="59"/>
-      <c r="BN42" s="59"/>
-      <c r="BO42" s="59"/>
-      <c r="BP42" s="59"/>
-      <c r="BQ42" s="59"/>
-      <c r="BR42" s="59"/>
-      <c r="BS42" s="59"/>
-      <c r="BT42" s="59"/>
-      <c r="BU42" s="59"/>
-      <c r="BV42" s="59"/>
-      <c r="BW42" s="59"/>
-      <c r="BX42" s="59"/>
-      <c r="BY42" s="59"/>
-      <c r="BZ42" s="59"/>
-      <c r="CA42" s="59"/>
-      <c r="CB42" s="59"/>
-      <c r="CC42" s="59"/>
-      <c r="CD42" s="59"/>
-      <c r="CE42" s="59"/>
-      <c r="CF42" s="59"/>
-      <c r="CG42" s="59"/>
-      <c r="CH42" s="59"/>
-      <c r="CI42" s="59"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
+      <c r="CG42" s="2"/>
+      <c r="CH42" s="2"/>
+      <c r="CI42" s="2"/>
       <c r="CJ42" s="2"/>
       <c r="CK42" s="2"/>
     </row>
@@ -15023,39 +15016,39 @@
         <v>1005</v>
       </c>
       <c r="BB43" s="6"/>
-      <c r="BC43" s="59"/>
-      <c r="BD43" s="59"/>
-      <c r="BE43" s="59"/>
-      <c r="BF43" s="59"/>
-      <c r="BG43" s="59"/>
-      <c r="BH43" s="59"/>
-      <c r="BI43" s="59"/>
-      <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
-      <c r="BL43" s="59"/>
-      <c r="BM43" s="59"/>
-      <c r="BN43" s="59"/>
-      <c r="BO43" s="59"/>
-      <c r="BP43" s="59"/>
-      <c r="BQ43" s="59"/>
-      <c r="BR43" s="59"/>
-      <c r="BS43" s="59"/>
-      <c r="BT43" s="59"/>
-      <c r="BU43" s="59"/>
-      <c r="BV43" s="59"/>
-      <c r="BW43" s="59"/>
-      <c r="BX43" s="59"/>
-      <c r="BY43" s="59"/>
-      <c r="BZ43" s="59"/>
-      <c r="CA43" s="59"/>
-      <c r="CB43" s="59"/>
-      <c r="CC43" s="59"/>
-      <c r="CD43" s="59"/>
-      <c r="CE43" s="59"/>
-      <c r="CF43" s="59"/>
-      <c r="CG43" s="59"/>
-      <c r="CH43" s="59"/>
-      <c r="CI43" s="59"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="2"/>
+      <c r="BY43" s="2"/>
+      <c r="BZ43" s="2"/>
+      <c r="CA43" s="2"/>
+      <c r="CB43" s="2"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="2"/>
+      <c r="CE43" s="2"/>
+      <c r="CF43" s="2"/>
+      <c r="CG43" s="2"/>
+      <c r="CH43" s="2"/>
+      <c r="CI43" s="2"/>
       <c r="CJ43" s="2"/>
       <c r="CK43" s="2"/>
     </row>
@@ -15187,46 +15180,46 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="9"/>
-      <c r="AZ44" s="65" t="s">
+      <c r="AZ44" s="63" t="s">
         <v>986</v>
       </c>
       <c r="BA44" s="9"/>
       <c r="BB44" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="BC44" s="59"/>
-      <c r="BD44" s="59"/>
-      <c r="BE44" s="59"/>
-      <c r="BF44" s="59"/>
-      <c r="BG44" s="59"/>
-      <c r="BH44" s="59"/>
-      <c r="BI44" s="59"/>
-      <c r="BJ44" s="59"/>
-      <c r="BK44" s="59"/>
-      <c r="BL44" s="59"/>
-      <c r="BM44" s="59"/>
-      <c r="BN44" s="59"/>
-      <c r="BO44" s="59"/>
-      <c r="BP44" s="59"/>
-      <c r="BQ44" s="59"/>
-      <c r="BR44" s="59"/>
-      <c r="BS44" s="59"/>
-      <c r="BT44" s="59"/>
-      <c r="BU44" s="59"/>
-      <c r="BV44" s="59"/>
-      <c r="BW44" s="59"/>
-      <c r="BX44" s="59"/>
-      <c r="BY44" s="59"/>
-      <c r="BZ44" s="59"/>
-      <c r="CA44" s="59"/>
-      <c r="CB44" s="59"/>
-      <c r="CC44" s="59"/>
-      <c r="CD44" s="59"/>
-      <c r="CE44" s="59"/>
-      <c r="CF44" s="59"/>
-      <c r="CG44" s="59"/>
-      <c r="CH44" s="59"/>
-      <c r="CI44" s="59"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="BQ44" s="2"/>
+      <c r="BR44" s="2"/>
+      <c r="BS44" s="2"/>
+      <c r="BT44" s="2"/>
+      <c r="BU44" s="2"/>
+      <c r="BV44" s="2"/>
+      <c r="BW44" s="2"/>
+      <c r="BX44" s="2"/>
+      <c r="BY44" s="2"/>
+      <c r="BZ44" s="2"/>
+      <c r="CA44" s="2"/>
+      <c r="CB44" s="2"/>
+      <c r="CC44" s="2"/>
+      <c r="CD44" s="2"/>
+      <c r="CE44" s="2"/>
+      <c r="CF44" s="2"/>
+      <c r="CG44" s="2"/>
+      <c r="CH44" s="2"/>
+      <c r="CI44" s="2"/>
       <c r="CJ44" s="2"/>
       <c r="CK44" s="2"/>
     </row>
@@ -15324,39 +15317,39 @@
       <c r="AZ45" s="57" t="s">
         <v>987</v>
       </c>
-      <c r="BC45" s="59"/>
-      <c r="BD45" s="59"/>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="59"/>
-      <c r="BJ45" s="59"/>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="59"/>
-      <c r="BM45" s="59"/>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="59"/>
-      <c r="BP45" s="59"/>
-      <c r="BQ45" s="59"/>
-      <c r="BR45" s="59"/>
-      <c r="BS45" s="59"/>
-      <c r="BT45" s="59"/>
-      <c r="BU45" s="59"/>
-      <c r="BV45" s="59"/>
-      <c r="BW45" s="59"/>
-      <c r="BX45" s="59"/>
-      <c r="BY45" s="59"/>
-      <c r="BZ45" s="59"/>
-      <c r="CA45" s="59"/>
-      <c r="CB45" s="59"/>
-      <c r="CC45" s="59"/>
-      <c r="CD45" s="59"/>
-      <c r="CE45" s="59"/>
-      <c r="CF45" s="59"/>
-      <c r="CG45" s="59"/>
-      <c r="CH45" s="59"/>
-      <c r="CI45" s="59"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="2"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="2"/>
+      <c r="BW45" s="2"/>
+      <c r="BX45" s="2"/>
+      <c r="BY45" s="2"/>
+      <c r="BZ45" s="2"/>
+      <c r="CA45" s="2"/>
+      <c r="CB45" s="2"/>
+      <c r="CC45" s="2"/>
+      <c r="CD45" s="2"/>
+      <c r="CE45" s="2"/>
+      <c r="CF45" s="2"/>
+      <c r="CG45" s="2"/>
+      <c r="CH45" s="2"/>
+      <c r="CI45" s="2"/>
       <c r="CJ45" s="2"/>
       <c r="CK45" s="2"/>
     </row>
@@ -15465,39 +15458,39 @@
       <c r="AZ46" s="9"/>
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
-      <c r="BC46" s="59"/>
-      <c r="BD46" s="59"/>
-      <c r="BE46" s="59"/>
-      <c r="BF46" s="59"/>
-      <c r="BG46" s="59"/>
-      <c r="BH46" s="59"/>
-      <c r="BI46" s="59"/>
-      <c r="BJ46" s="59"/>
-      <c r="BK46" s="59"/>
-      <c r="BL46" s="59"/>
-      <c r="BM46" s="59"/>
-      <c r="BN46" s="59"/>
-      <c r="BO46" s="59"/>
-      <c r="BP46" s="59"/>
-      <c r="BQ46" s="59"/>
-      <c r="BR46" s="59"/>
-      <c r="BS46" s="59"/>
-      <c r="BT46" s="59"/>
-      <c r="BU46" s="59"/>
-      <c r="BV46" s="59"/>
-      <c r="BW46" s="59"/>
-      <c r="BX46" s="59"/>
-      <c r="BY46" s="59"/>
-      <c r="BZ46" s="59"/>
-      <c r="CA46" s="59"/>
-      <c r="CB46" s="59"/>
-      <c r="CC46" s="59"/>
-      <c r="CD46" s="59"/>
-      <c r="CE46" s="59"/>
-      <c r="CF46" s="59"/>
-      <c r="CG46" s="59"/>
-      <c r="CH46" s="59"/>
-      <c r="CI46" s="59"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BQ46" s="2"/>
+      <c r="BR46" s="2"/>
+      <c r="BS46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BU46" s="2"/>
+      <c r="BV46" s="2"/>
+      <c r="BW46" s="2"/>
+      <c r="BX46" s="2"/>
+      <c r="BY46" s="2"/>
+      <c r="BZ46" s="2"/>
+      <c r="CA46" s="2"/>
+      <c r="CB46" s="2"/>
+      <c r="CC46" s="2"/>
+      <c r="CD46" s="2"/>
+      <c r="CE46" s="2"/>
+      <c r="CF46" s="2"/>
+      <c r="CG46" s="2"/>
+      <c r="CH46" s="2"/>
+      <c r="CI46" s="2"/>
       <c r="CJ46" s="2"/>
       <c r="CK46" s="2"/>
     </row>
@@ -15619,42 +15612,42 @@
       <c r="AV47" s="21"/>
       <c r="AW47" s="21"/>
       <c r="AX47" s="21"/>
-      <c r="AZ47" s="62" t="s">
+      <c r="AZ47" s="60" t="s">
         <v>990</v>
       </c>
-      <c r="BC47" s="59"/>
-      <c r="BD47" s="59"/>
-      <c r="BE47" s="59"/>
-      <c r="BF47" s="59"/>
-      <c r="BG47" s="59"/>
-      <c r="BH47" s="59"/>
-      <c r="BI47" s="59"/>
-      <c r="BJ47" s="59"/>
-      <c r="BK47" s="59"/>
-      <c r="BL47" s="59"/>
-      <c r="BM47" s="59"/>
-      <c r="BN47" s="59"/>
-      <c r="BO47" s="59"/>
-      <c r="BP47" s="59"/>
-      <c r="BQ47" s="59"/>
-      <c r="BR47" s="59"/>
-      <c r="BS47" s="59"/>
-      <c r="BT47" s="59"/>
-      <c r="BU47" s="59"/>
-      <c r="BV47" s="59"/>
-      <c r="BW47" s="59"/>
-      <c r="BX47" s="59"/>
-      <c r="BY47" s="59"/>
-      <c r="BZ47" s="59"/>
-      <c r="CA47" s="59"/>
-      <c r="CB47" s="59"/>
-      <c r="CC47" s="59"/>
-      <c r="CD47" s="59"/>
-      <c r="CE47" s="59"/>
-      <c r="CF47" s="59"/>
-      <c r="CG47" s="59"/>
-      <c r="CH47" s="59"/>
-      <c r="CI47" s="59"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="2"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="2"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="2"/>
+      <c r="BY47" s="2"/>
+      <c r="BZ47" s="2"/>
+      <c r="CA47" s="2"/>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="2"/>
+      <c r="CG47" s="2"/>
+      <c r="CH47" s="2"/>
+      <c r="CI47" s="2"/>
       <c r="CJ47" s="2"/>
       <c r="CK47" s="2"/>
     </row>
@@ -15799,39 +15792,39 @@
       </c>
       <c r="BA48" s="13"/>
       <c r="BB48" s="13"/>
-      <c r="BC48" s="59"/>
-      <c r="BD48" s="59"/>
-      <c r="BE48" s="59"/>
-      <c r="BF48" s="59"/>
-      <c r="BG48" s="59"/>
-      <c r="BH48" s="59"/>
-      <c r="BI48" s="59"/>
-      <c r="BJ48" s="59"/>
-      <c r="BK48" s="59"/>
-      <c r="BL48" s="59"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="59"/>
-      <c r="BO48" s="59"/>
-      <c r="BP48" s="59"/>
-      <c r="BQ48" s="59"/>
-      <c r="BR48" s="59"/>
-      <c r="BS48" s="59"/>
-      <c r="BT48" s="59"/>
-      <c r="BU48" s="59"/>
-      <c r="BV48" s="59"/>
-      <c r="BW48" s="59"/>
-      <c r="BX48" s="59"/>
-      <c r="BY48" s="59"/>
-      <c r="BZ48" s="59"/>
-      <c r="CA48" s="59"/>
-      <c r="CB48" s="59"/>
-      <c r="CC48" s="59"/>
-      <c r="CD48" s="59"/>
-      <c r="CE48" s="59"/>
-      <c r="CF48" s="59"/>
-      <c r="CG48" s="59"/>
-      <c r="CH48" s="59"/>
-      <c r="CI48" s="59"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="2"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+      <c r="BV48" s="2"/>
+      <c r="BW48" s="2"/>
+      <c r="BX48" s="2"/>
+      <c r="BY48" s="2"/>
+      <c r="BZ48" s="2"/>
+      <c r="CA48" s="2"/>
+      <c r="CB48" s="2"/>
+      <c r="CC48" s="2"/>
+      <c r="CD48" s="2"/>
+      <c r="CE48" s="2"/>
+      <c r="CF48" s="2"/>
+      <c r="CG48" s="2"/>
+      <c r="CH48" s="2"/>
+      <c r="CI48" s="2"/>
       <c r="CJ48" s="2"/>
       <c r="CK48" s="2"/>
     </row>
@@ -15942,43 +15935,43 @@
       </c>
       <c r="BA49" s="6"/>
       <c r="BB49" s="6"/>
-      <c r="BC49" s="59"/>
-      <c r="BD49" s="59"/>
-      <c r="BE49" s="59"/>
-      <c r="BF49" s="59"/>
-      <c r="BG49" s="59"/>
-      <c r="BH49" s="59"/>
-      <c r="BI49" s="59"/>
-      <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
-      <c r="BL49" s="59"/>
-      <c r="BM49" s="59"/>
-      <c r="BN49" s="59"/>
-      <c r="BO49" s="59"/>
-      <c r="BP49" s="59"/>
-      <c r="BQ49" s="59"/>
-      <c r="BR49" s="59"/>
-      <c r="BS49" s="59"/>
-      <c r="BT49" s="59"/>
-      <c r="BU49" s="59"/>
-      <c r="BV49" s="59"/>
-      <c r="BW49" s="59"/>
-      <c r="BX49" s="59"/>
-      <c r="BY49" s="59"/>
-      <c r="BZ49" s="59"/>
-      <c r="CA49" s="59"/>
-      <c r="CB49" s="59"/>
-      <c r="CC49" s="59"/>
-      <c r="CD49" s="59"/>
-      <c r="CE49" s="59"/>
-      <c r="CF49" s="59"/>
-      <c r="CG49" s="59"/>
-      <c r="CH49" s="59"/>
-      <c r="CI49" s="59"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="2"/>
+      <c r="BW49" s="2"/>
+      <c r="BX49" s="2"/>
+      <c r="BY49" s="2"/>
+      <c r="BZ49" s="2"/>
+      <c r="CA49" s="2"/>
+      <c r="CB49" s="2"/>
+      <c r="CC49" s="2"/>
+      <c r="CD49" s="2"/>
+      <c r="CE49" s="2"/>
+      <c r="CF49" s="2"/>
+      <c r="CG49" s="2"/>
+      <c r="CH49" s="2"/>
+      <c r="CI49" s="2"/>
       <c r="CJ49" s="2"/>
       <c r="CK49" s="2"/>
     </row>
-    <row r="50" spans="1:89" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>917</v>
       </c>
@@ -16108,7 +16101,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="9"/>
-      <c r="AZ50" s="64" t="s">
+      <c r="AZ50" s="62" t="s">
         <v>1025</v>
       </c>
       <c r="BA50" s="9" t="s">
@@ -16117,39 +16110,39 @@
       <c r="BB50" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="BC50" s="59"/>
-      <c r="BD50" s="59"/>
-      <c r="BE50" s="59"/>
-      <c r="BF50" s="59"/>
-      <c r="BG50" s="59"/>
-      <c r="BH50" s="59"/>
-      <c r="BI50" s="59"/>
-      <c r="BJ50" s="59"/>
-      <c r="BK50" s="59"/>
-      <c r="BL50" s="59"/>
-      <c r="BM50" s="59"/>
-      <c r="BN50" s="59"/>
-      <c r="BO50" s="59"/>
-      <c r="BP50" s="59"/>
-      <c r="BQ50" s="59"/>
-      <c r="BR50" s="59"/>
-      <c r="BS50" s="59"/>
-      <c r="BT50" s="59"/>
-      <c r="BU50" s="59"/>
-      <c r="BV50" s="59"/>
-      <c r="BW50" s="59"/>
-      <c r="BX50" s="59"/>
-      <c r="BY50" s="59"/>
-      <c r="BZ50" s="59"/>
-      <c r="CA50" s="59"/>
-      <c r="CB50" s="59"/>
-      <c r="CC50" s="59"/>
-      <c r="CD50" s="59"/>
-      <c r="CE50" s="59"/>
-      <c r="CF50" s="59"/>
-      <c r="CG50" s="59"/>
-      <c r="CH50" s="59"/>
-      <c r="CI50" s="59"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
+      <c r="BQ50" s="2"/>
+      <c r="BR50" s="2"/>
+      <c r="BS50" s="2"/>
+      <c r="BT50" s="2"/>
+      <c r="BU50" s="2"/>
+      <c r="BV50" s="2"/>
+      <c r="BW50" s="2"/>
+      <c r="BX50" s="2"/>
+      <c r="BY50" s="2"/>
+      <c r="BZ50" s="2"/>
+      <c r="CA50" s="2"/>
+      <c r="CB50" s="2"/>
+      <c r="CC50" s="2"/>
+      <c r="CD50" s="2"/>
+      <c r="CE50" s="2"/>
+      <c r="CF50" s="2"/>
+      <c r="CG50" s="2"/>
+      <c r="CH50" s="2"/>
+      <c r="CI50" s="2"/>
       <c r="CJ50" s="2"/>
       <c r="CK50" s="2"/>
     </row>
@@ -16295,39 +16288,39 @@
       <c r="AX51" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="BC51" s="59"/>
-      <c r="BD51" s="59"/>
-      <c r="BE51" s="59"/>
-      <c r="BF51" s="59"/>
-      <c r="BG51" s="59"/>
-      <c r="BH51" s="59"/>
-      <c r="BI51" s="59"/>
-      <c r="BJ51" s="59"/>
-      <c r="BK51" s="59"/>
-      <c r="BL51" s="59"/>
-      <c r="BM51" s="59"/>
-      <c r="BN51" s="59"/>
-      <c r="BO51" s="59"/>
-      <c r="BP51" s="59"/>
-      <c r="BQ51" s="59"/>
-      <c r="BR51" s="59"/>
-      <c r="BS51" s="59"/>
-      <c r="BT51" s="59"/>
-      <c r="BU51" s="59"/>
-      <c r="BV51" s="59"/>
-      <c r="BW51" s="59"/>
-      <c r="BX51" s="59"/>
-      <c r="BY51" s="59"/>
-      <c r="BZ51" s="59"/>
-      <c r="CA51" s="59"/>
-      <c r="CB51" s="59"/>
-      <c r="CC51" s="59"/>
-      <c r="CD51" s="59"/>
-      <c r="CE51" s="59"/>
-      <c r="CF51" s="59"/>
-      <c r="CG51" s="59"/>
-      <c r="CH51" s="59"/>
-      <c r="CI51" s="59"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="2"/>
+      <c r="BS51" s="2"/>
+      <c r="BT51" s="2"/>
+      <c r="BU51" s="2"/>
+      <c r="BV51" s="2"/>
+      <c r="BW51" s="2"/>
+      <c r="BX51" s="2"/>
+      <c r="BY51" s="2"/>
+      <c r="BZ51" s="2"/>
+      <c r="CA51" s="2"/>
+      <c r="CB51" s="2"/>
+      <c r="CC51" s="2"/>
+      <c r="CD51" s="2"/>
+      <c r="CE51" s="2"/>
+      <c r="CF51" s="2"/>
+      <c r="CG51" s="2"/>
+      <c r="CH51" s="2"/>
+      <c r="CI51" s="2"/>
       <c r="CJ51" s="2"/>
       <c r="CK51" s="2"/>
     </row>
@@ -16447,39 +16440,39 @@
       <c r="BB52" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="BC52" s="59"/>
-      <c r="BD52" s="59"/>
-      <c r="BE52" s="59"/>
-      <c r="BF52" s="59"/>
-      <c r="BG52" s="59"/>
-      <c r="BH52" s="59"/>
-      <c r="BI52" s="59"/>
-      <c r="BJ52" s="59"/>
-      <c r="BK52" s="59"/>
-      <c r="BL52" s="59"/>
-      <c r="BM52" s="59"/>
-      <c r="BN52" s="59"/>
-      <c r="BO52" s="59"/>
-      <c r="BP52" s="59"/>
-      <c r="BQ52" s="59"/>
-      <c r="BR52" s="59"/>
-      <c r="BS52" s="59"/>
-      <c r="BT52" s="59"/>
-      <c r="BU52" s="59"/>
-      <c r="BV52" s="59"/>
-      <c r="BW52" s="59"/>
-      <c r="BX52" s="59"/>
-      <c r="BY52" s="59"/>
-      <c r="BZ52" s="59"/>
-      <c r="CA52" s="59"/>
-      <c r="CB52" s="59"/>
-      <c r="CC52" s="59"/>
-      <c r="CD52" s="59"/>
-      <c r="CE52" s="59"/>
-      <c r="CF52" s="59"/>
-      <c r="CG52" s="59"/>
-      <c r="CH52" s="59"/>
-      <c r="CI52" s="59"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52" s="2"/>
+      <c r="BM52" s="2"/>
+      <c r="BN52" s="2"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
+      <c r="BQ52" s="2"/>
+      <c r="BR52" s="2"/>
+      <c r="BS52" s="2"/>
+      <c r="BT52" s="2"/>
+      <c r="BU52" s="2"/>
+      <c r="BV52" s="2"/>
+      <c r="BW52" s="2"/>
+      <c r="BX52" s="2"/>
+      <c r="BY52" s="2"/>
+      <c r="BZ52" s="2"/>
+      <c r="CA52" s="2"/>
+      <c r="CB52" s="2"/>
+      <c r="CC52" s="2"/>
+      <c r="CD52" s="2"/>
+      <c r="CE52" s="2"/>
+      <c r="CF52" s="2"/>
+      <c r="CG52" s="2"/>
+      <c r="CH52" s="2"/>
+      <c r="CI52" s="2"/>
       <c r="CJ52" s="2"/>
       <c r="CK52" s="2"/>
     </row>
@@ -16614,39 +16607,39 @@
       <c r="AZ53" s="12"/>
       <c r="BA53" s="12"/>
       <c r="BB53" s="12"/>
-      <c r="BC53" s="59"/>
-      <c r="BD53" s="59"/>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="59"/>
-      <c r="BJ53" s="59"/>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="59"/>
-      <c r="BM53" s="59"/>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="59"/>
-      <c r="BP53" s="59"/>
-      <c r="BQ53" s="59"/>
-      <c r="BR53" s="59"/>
-      <c r="BS53" s="59"/>
-      <c r="BT53" s="59"/>
-      <c r="BU53" s="59"/>
-      <c r="BV53" s="59"/>
-      <c r="BW53" s="59"/>
-      <c r="BX53" s="59"/>
-      <c r="BY53" s="59"/>
-      <c r="BZ53" s="59"/>
-      <c r="CA53" s="59"/>
-      <c r="CB53" s="59"/>
-      <c r="CC53" s="59"/>
-      <c r="CD53" s="59"/>
-      <c r="CE53" s="59"/>
-      <c r="CF53" s="59"/>
-      <c r="CG53" s="59"/>
-      <c r="CH53" s="59"/>
-      <c r="CI53" s="59"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="2"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="2"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="2"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="2"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="2"/>
+      <c r="BW53" s="2"/>
+      <c r="BX53" s="2"/>
+      <c r="BY53" s="2"/>
+      <c r="BZ53" s="2"/>
+      <c r="CA53" s="2"/>
+      <c r="CB53" s="2"/>
+      <c r="CC53" s="2"/>
+      <c r="CD53" s="2"/>
+      <c r="CE53" s="2"/>
+      <c r="CF53" s="2"/>
+      <c r="CG53" s="2"/>
+      <c r="CH53" s="2"/>
+      <c r="CI53" s="2"/>
       <c r="CJ53" s="2"/>
       <c r="CK53" s="2"/>
     </row>
@@ -16740,43 +16733,43 @@
       <c r="AZ54" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="BC54" s="60"/>
-      <c r="BD54" s="60"/>
-      <c r="BE54" s="60"/>
-      <c r="BF54" s="60"/>
-      <c r="BG54" s="60"/>
-      <c r="BH54" s="60"/>
-      <c r="BI54" s="60"/>
-      <c r="BJ54" s="60"/>
-      <c r="BK54" s="60"/>
-      <c r="BL54" s="60"/>
-      <c r="BM54" s="60"/>
-      <c r="BN54" s="60"/>
-      <c r="BO54" s="60"/>
-      <c r="BP54" s="60"/>
-      <c r="BQ54" s="60"/>
-      <c r="BR54" s="60"/>
-      <c r="BS54" s="60"/>
-      <c r="BT54" s="60"/>
-      <c r="BU54" s="60"/>
-      <c r="BV54" s="60"/>
-      <c r="BW54" s="60"/>
-      <c r="BX54" s="60"/>
-      <c r="BY54" s="60"/>
-      <c r="BZ54" s="60"/>
-      <c r="CA54" s="60"/>
-      <c r="CB54" s="60"/>
-      <c r="CC54" s="60"/>
-      <c r="CD54" s="60"/>
-      <c r="CE54" s="60"/>
-      <c r="CF54" s="60"/>
-      <c r="CG54" s="60"/>
-      <c r="CH54" s="60"/>
-      <c r="CI54" s="60"/>
+      <c r="BC54" s="17"/>
+      <c r="BD54" s="17"/>
+      <c r="BE54" s="17"/>
+      <c r="BF54" s="17"/>
+      <c r="BG54" s="17"/>
+      <c r="BH54" s="17"/>
+      <c r="BI54" s="17"/>
+      <c r="BJ54" s="17"/>
+      <c r="BK54" s="17"/>
+      <c r="BL54" s="17"/>
+      <c r="BM54" s="17"/>
+      <c r="BN54" s="17"/>
+      <c r="BO54" s="17"/>
+      <c r="BP54" s="17"/>
+      <c r="BQ54" s="17"/>
+      <c r="BR54" s="17"/>
+      <c r="BS54" s="17"/>
+      <c r="BT54" s="17"/>
+      <c r="BU54" s="17"/>
+      <c r="BV54" s="17"/>
+      <c r="BW54" s="17"/>
+      <c r="BX54" s="17"/>
+      <c r="BY54" s="17"/>
+      <c r="BZ54" s="17"/>
+      <c r="CA54" s="17"/>
+      <c r="CB54" s="17"/>
+      <c r="CC54" s="17"/>
+      <c r="CD54" s="17"/>
+      <c r="CE54" s="17"/>
+      <c r="CF54" s="17"/>
+      <c r="CG54" s="17"/>
+      <c r="CH54" s="17"/>
+      <c r="CI54" s="17"/>
       <c r="CJ54" s="17"/>
       <c r="CK54" s="17"/>
     </row>
-    <row r="55" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>946</v>
       </c>
@@ -16890,39 +16883,39 @@
       <c r="BB55" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="BC55" s="59"/>
-      <c r="BD55" s="59"/>
-      <c r="BE55" s="59"/>
-      <c r="BF55" s="59"/>
-      <c r="BG55" s="59"/>
-      <c r="BH55" s="59"/>
-      <c r="BI55" s="59"/>
-      <c r="BJ55" s="59"/>
-      <c r="BK55" s="59"/>
-      <c r="BL55" s="59"/>
-      <c r="BM55" s="59"/>
-      <c r="BN55" s="59"/>
-      <c r="BO55" s="59"/>
-      <c r="BP55" s="59"/>
-      <c r="BQ55" s="59"/>
-      <c r="BR55" s="59"/>
-      <c r="BS55" s="59"/>
-      <c r="BT55" s="59"/>
-      <c r="BU55" s="59"/>
-      <c r="BV55" s="59"/>
-      <c r="BW55" s="59"/>
-      <c r="BX55" s="59"/>
-      <c r="BY55" s="59"/>
-      <c r="BZ55" s="59"/>
-      <c r="CA55" s="59"/>
-      <c r="CB55" s="59"/>
-      <c r="CC55" s="59"/>
-      <c r="CD55" s="59"/>
-      <c r="CE55" s="59"/>
-      <c r="CF55" s="59"/>
-      <c r="CG55" s="59"/>
-      <c r="CH55" s="59"/>
-      <c r="CI55" s="59"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55" s="2"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="2"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
+      <c r="BQ55" s="2"/>
+      <c r="BR55" s="2"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="2"/>
+      <c r="BU55" s="2"/>
+      <c r="BV55" s="2"/>
+      <c r="BW55" s="2"/>
+      <c r="BX55" s="2"/>
+      <c r="BY55" s="2"/>
+      <c r="BZ55" s="2"/>
+      <c r="CA55" s="2"/>
+      <c r="CB55" s="2"/>
+      <c r="CC55" s="2"/>
+      <c r="CD55" s="2"/>
+      <c r="CE55" s="2"/>
+      <c r="CF55" s="2"/>
+      <c r="CG55" s="2"/>
+      <c r="CH55" s="2"/>
+      <c r="CI55" s="2"/>
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
     </row>
@@ -17036,45 +17029,45 @@
       <c r="AV56" s="21"/>
       <c r="AW56" s="21"/>
       <c r="AX56" s="21"/>
-      <c r="AZ56" s="62" t="s">
+      <c r="AZ56" s="60" t="s">
         <v>995</v>
       </c>
       <c r="BB56" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="BC56" s="59"/>
-      <c r="BD56" s="59"/>
-      <c r="BE56" s="59"/>
-      <c r="BF56" s="59"/>
-      <c r="BG56" s="59"/>
-      <c r="BH56" s="59"/>
-      <c r="BI56" s="59"/>
-      <c r="BJ56" s="59"/>
-      <c r="BK56" s="59"/>
-      <c r="BL56" s="59"/>
-      <c r="BM56" s="59"/>
-      <c r="BN56" s="59"/>
-      <c r="BO56" s="59"/>
-      <c r="BP56" s="59"/>
-      <c r="BQ56" s="59"/>
-      <c r="BR56" s="59"/>
-      <c r="BS56" s="59"/>
-      <c r="BT56" s="59"/>
-      <c r="BU56" s="59"/>
-      <c r="BV56" s="59"/>
-      <c r="BW56" s="59"/>
-      <c r="BX56" s="59"/>
-      <c r="BY56" s="59"/>
-      <c r="BZ56" s="59"/>
-      <c r="CA56" s="59"/>
-      <c r="CB56" s="59"/>
-      <c r="CC56" s="59"/>
-      <c r="CD56" s="59"/>
-      <c r="CE56" s="59"/>
-      <c r="CF56" s="59"/>
-      <c r="CG56" s="59"/>
-      <c r="CH56" s="59"/>
-      <c r="CI56" s="59"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+      <c r="BL56" s="2"/>
+      <c r="BM56" s="2"/>
+      <c r="BN56" s="2"/>
+      <c r="BO56" s="2"/>
+      <c r="BP56" s="2"/>
+      <c r="BQ56" s="2"/>
+      <c r="BR56" s="2"/>
+      <c r="BS56" s="2"/>
+      <c r="BT56" s="2"/>
+      <c r="BU56" s="2"/>
+      <c r="BV56" s="2"/>
+      <c r="BW56" s="2"/>
+      <c r="BX56" s="2"/>
+      <c r="BY56" s="2"/>
+      <c r="BZ56" s="2"/>
+      <c r="CA56" s="2"/>
+      <c r="CB56" s="2"/>
+      <c r="CC56" s="2"/>
+      <c r="CD56" s="2"/>
+      <c r="CE56" s="2"/>
+      <c r="CF56" s="2"/>
+      <c r="CG56" s="2"/>
+      <c r="CH56" s="2"/>
+      <c r="CI56" s="2"/>
       <c r="CJ56" s="2"/>
       <c r="CK56" s="2"/>
     </row>
@@ -17215,43 +17208,43 @@
       <c r="BB57" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="BC57" s="59"/>
-      <c r="BD57" s="59"/>
-      <c r="BE57" s="59"/>
-      <c r="BF57" s="59"/>
-      <c r="BG57" s="59"/>
-      <c r="BH57" s="59"/>
-      <c r="BI57" s="59"/>
-      <c r="BJ57" s="59"/>
-      <c r="BK57" s="59"/>
-      <c r="BL57" s="59"/>
-      <c r="BM57" s="59"/>
-      <c r="BN57" s="59"/>
-      <c r="BO57" s="59"/>
-      <c r="BP57" s="59"/>
-      <c r="BQ57" s="59"/>
-      <c r="BR57" s="59"/>
-      <c r="BS57" s="59"/>
-      <c r="BT57" s="59"/>
-      <c r="BU57" s="59"/>
-      <c r="BV57" s="59"/>
-      <c r="BW57" s="59"/>
-      <c r="BX57" s="59"/>
-      <c r="BY57" s="59"/>
-      <c r="BZ57" s="59"/>
-      <c r="CA57" s="59"/>
-      <c r="CB57" s="59"/>
-      <c r="CC57" s="59"/>
-      <c r="CD57" s="59"/>
-      <c r="CE57" s="59"/>
-      <c r="CF57" s="59"/>
-      <c r="CG57" s="59"/>
-      <c r="CH57" s="59"/>
-      <c r="CI57" s="59"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57" s="2"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57" s="2"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57" s="2"/>
+      <c r="BQ57" s="2"/>
+      <c r="BR57" s="2"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="2"/>
+      <c r="BW57" s="2"/>
+      <c r="BX57" s="2"/>
+      <c r="BY57" s="2"/>
+      <c r="BZ57" s="2"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="2"/>
+      <c r="CE57" s="2"/>
+      <c r="CF57" s="2"/>
+      <c r="CG57" s="2"/>
+      <c r="CH57" s="2"/>
+      <c r="CI57" s="2"/>
       <c r="CJ57" s="2"/>
       <c r="CK57" s="2"/>
     </row>
-    <row r="58" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>894</v>
       </c>
@@ -17386,43 +17379,43 @@
       <c r="AZ58" s="12"/>
       <c r="BA58" s="12"/>
       <c r="BB58" s="12"/>
-      <c r="BC58" s="60"/>
-      <c r="BD58" s="60"/>
-      <c r="BE58" s="60"/>
-      <c r="BF58" s="60"/>
-      <c r="BG58" s="60"/>
-      <c r="BH58" s="60"/>
-      <c r="BI58" s="60"/>
-      <c r="BJ58" s="60"/>
-      <c r="BK58" s="60"/>
-      <c r="BL58" s="60"/>
-      <c r="BM58" s="60"/>
-      <c r="BN58" s="60"/>
-      <c r="BO58" s="60"/>
-      <c r="BP58" s="60"/>
-      <c r="BQ58" s="60"/>
-      <c r="BR58" s="60"/>
-      <c r="BS58" s="60"/>
-      <c r="BT58" s="60"/>
-      <c r="BU58" s="60"/>
-      <c r="BV58" s="60"/>
-      <c r="BW58" s="60"/>
-      <c r="BX58" s="60"/>
-      <c r="BY58" s="60"/>
-      <c r="BZ58" s="60"/>
-      <c r="CA58" s="60"/>
-      <c r="CB58" s="60"/>
-      <c r="CC58" s="60"/>
-      <c r="CD58" s="60"/>
-      <c r="CE58" s="60"/>
-      <c r="CF58" s="60"/>
-      <c r="CG58" s="60"/>
-      <c r="CH58" s="60"/>
-      <c r="CI58" s="60"/>
+      <c r="BC58" s="17"/>
+      <c r="BD58" s="17"/>
+      <c r="BE58" s="17"/>
+      <c r="BF58" s="17"/>
+      <c r="BG58" s="17"/>
+      <c r="BH58" s="17"/>
+      <c r="BI58" s="17"/>
+      <c r="BJ58" s="17"/>
+      <c r="BK58" s="17"/>
+      <c r="BL58" s="17"/>
+      <c r="BM58" s="17"/>
+      <c r="BN58" s="17"/>
+      <c r="BO58" s="17"/>
+      <c r="BP58" s="17"/>
+      <c r="BQ58" s="17"/>
+      <c r="BR58" s="17"/>
+      <c r="BS58" s="17"/>
+      <c r="BT58" s="17"/>
+      <c r="BU58" s="17"/>
+      <c r="BV58" s="17"/>
+      <c r="BW58" s="17"/>
+      <c r="BX58" s="17"/>
+      <c r="BY58" s="17"/>
+      <c r="BZ58" s="17"/>
+      <c r="CA58" s="17"/>
+      <c r="CB58" s="17"/>
+      <c r="CC58" s="17"/>
+      <c r="CD58" s="17"/>
+      <c r="CE58" s="17"/>
+      <c r="CF58" s="17"/>
+      <c r="CG58" s="17"/>
+      <c r="CH58" s="17"/>
+      <c r="CI58" s="17"/>
       <c r="CJ58" s="17"/>
       <c r="CK58" s="17"/>
     </row>
-    <row r="59" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>945</v>
       </c>
@@ -17547,39 +17540,39 @@
       <c r="BB59" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="BC59" s="59"/>
-      <c r="BD59" s="59"/>
-      <c r="BE59" s="59"/>
-      <c r="BF59" s="59"/>
-      <c r="BG59" s="59"/>
-      <c r="BH59" s="59"/>
-      <c r="BI59" s="59"/>
-      <c r="BJ59" s="59"/>
-      <c r="BK59" s="59"/>
-      <c r="BL59" s="59"/>
-      <c r="BM59" s="59"/>
-      <c r="BN59" s="59"/>
-      <c r="BO59" s="59"/>
-      <c r="BP59" s="59"/>
-      <c r="BQ59" s="59"/>
-      <c r="BR59" s="59"/>
-      <c r="BS59" s="59"/>
-      <c r="BT59" s="59"/>
-      <c r="BU59" s="59"/>
-      <c r="BV59" s="59"/>
-      <c r="BW59" s="59"/>
-      <c r="BX59" s="59"/>
-      <c r="BY59" s="59"/>
-      <c r="BZ59" s="59"/>
-      <c r="CA59" s="59"/>
-      <c r="CB59" s="59"/>
-      <c r="CC59" s="59"/>
-      <c r="CD59" s="59"/>
-      <c r="CE59" s="59"/>
-      <c r="CF59" s="59"/>
-      <c r="CG59" s="59"/>
-      <c r="CH59" s="59"/>
-      <c r="CI59" s="59"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="2"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59" s="2"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59" s="2"/>
+      <c r="BQ59" s="2"/>
+      <c r="BR59" s="2"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="2"/>
+      <c r="BU59" s="2"/>
+      <c r="BV59" s="2"/>
+      <c r="BW59" s="2"/>
+      <c r="BX59" s="2"/>
+      <c r="BY59" s="2"/>
+      <c r="BZ59" s="2"/>
+      <c r="CA59" s="2"/>
+      <c r="CB59" s="2"/>
+      <c r="CC59" s="2"/>
+      <c r="CD59" s="2"/>
+      <c r="CE59" s="2"/>
+      <c r="CF59" s="2"/>
+      <c r="CG59" s="2"/>
+      <c r="CH59" s="2"/>
+      <c r="CI59" s="2"/>
       <c r="CJ59" s="2"/>
       <c r="CK59" s="2"/>
     </row>
@@ -17720,43 +17713,43 @@
       <c r="BB60" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="BC60" s="59"/>
-      <c r="BD60" s="59"/>
-      <c r="BE60" s="59"/>
-      <c r="BF60" s="59"/>
-      <c r="BG60" s="59"/>
-      <c r="BH60" s="59"/>
-      <c r="BI60" s="59"/>
-      <c r="BJ60" s="59"/>
-      <c r="BK60" s="59"/>
-      <c r="BL60" s="59"/>
-      <c r="BM60" s="59"/>
-      <c r="BN60" s="59"/>
-      <c r="BO60" s="59"/>
-      <c r="BP60" s="59"/>
-      <c r="BQ60" s="59"/>
-      <c r="BR60" s="59"/>
-      <c r="BS60" s="59"/>
-      <c r="BT60" s="59"/>
-      <c r="BU60" s="59"/>
-      <c r="BV60" s="59"/>
-      <c r="BW60" s="59"/>
-      <c r="BX60" s="59"/>
-      <c r="BY60" s="59"/>
-      <c r="BZ60" s="59"/>
-      <c r="CA60" s="59"/>
-      <c r="CB60" s="59"/>
-      <c r="CC60" s="59"/>
-      <c r="CD60" s="59"/>
-      <c r="CE60" s="59"/>
-      <c r="CF60" s="59"/>
-      <c r="CG60" s="59"/>
-      <c r="CH60" s="59"/>
-      <c r="CI60" s="59"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="2"/>
+      <c r="BL60" s="2"/>
+      <c r="BM60" s="2"/>
+      <c r="BN60" s="2"/>
+      <c r="BO60" s="2"/>
+      <c r="BP60" s="2"/>
+      <c r="BQ60" s="2"/>
+      <c r="BR60" s="2"/>
+      <c r="BS60" s="2"/>
+      <c r="BT60" s="2"/>
+      <c r="BU60" s="2"/>
+      <c r="BV60" s="2"/>
+      <c r="BW60" s="2"/>
+      <c r="BX60" s="2"/>
+      <c r="BY60" s="2"/>
+      <c r="BZ60" s="2"/>
+      <c r="CA60" s="2"/>
+      <c r="CB60" s="2"/>
+      <c r="CC60" s="2"/>
+      <c r="CD60" s="2"/>
+      <c r="CE60" s="2"/>
+      <c r="CF60" s="2"/>
+      <c r="CG60" s="2"/>
+      <c r="CH60" s="2"/>
+      <c r="CI60" s="2"/>
       <c r="CJ60" s="2"/>
       <c r="CK60" s="2"/>
     </row>
-    <row r="61" spans="1:89" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>871</v>
       </c>
@@ -17879,39 +17872,39 @@
       <c r="BB61" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="BC61" s="59"/>
-      <c r="BD61" s="59"/>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="59"/>
-      <c r="BJ61" s="59"/>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="59"/>
-      <c r="BM61" s="59"/>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="59"/>
-      <c r="BP61" s="59"/>
-      <c r="BQ61" s="59"/>
-      <c r="BR61" s="59"/>
-      <c r="BS61" s="59"/>
-      <c r="BT61" s="59"/>
-      <c r="BU61" s="59"/>
-      <c r="BV61" s="59"/>
-      <c r="BW61" s="59"/>
-      <c r="BX61" s="59"/>
-      <c r="BY61" s="59"/>
-      <c r="BZ61" s="59"/>
-      <c r="CA61" s="59"/>
-      <c r="CB61" s="59"/>
-      <c r="CC61" s="59"/>
-      <c r="CD61" s="59"/>
-      <c r="CE61" s="59"/>
-      <c r="CF61" s="59"/>
-      <c r="CG61" s="59"/>
-      <c r="CH61" s="59"/>
-      <c r="CI61" s="59"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="2"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="2"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="2"/>
+      <c r="BK61" s="2"/>
+      <c r="BL61" s="2"/>
+      <c r="BM61" s="2"/>
+      <c r="BN61" s="2"/>
+      <c r="BO61" s="2"/>
+      <c r="BP61" s="2"/>
+      <c r="BQ61" s="2"/>
+      <c r="BR61" s="2"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="2"/>
+      <c r="BW61" s="2"/>
+      <c r="BX61" s="2"/>
+      <c r="BY61" s="2"/>
+      <c r="BZ61" s="2"/>
+      <c r="CA61" s="2"/>
+      <c r="CB61" s="2"/>
+      <c r="CC61" s="2"/>
+      <c r="CD61" s="2"/>
+      <c r="CE61" s="2"/>
+      <c r="CF61" s="2"/>
+      <c r="CG61" s="2"/>
+      <c r="CH61" s="2"/>
+      <c r="CI61" s="2"/>
       <c r="CJ61" s="2"/>
       <c r="CK61" s="2"/>
     </row>
@@ -18020,39 +18013,39 @@
       </c>
       <c r="BA62" s="6"/>
       <c r="BB62" s="6"/>
-      <c r="BC62" s="59"/>
-      <c r="BD62" s="59"/>
-      <c r="BE62" s="59"/>
-      <c r="BF62" s="59"/>
-      <c r="BG62" s="59"/>
-      <c r="BH62" s="59"/>
-      <c r="BI62" s="59"/>
-      <c r="BJ62" s="59"/>
-      <c r="BK62" s="59"/>
-      <c r="BL62" s="59"/>
-      <c r="BM62" s="59"/>
-      <c r="BN62" s="59"/>
-      <c r="BO62" s="59"/>
-      <c r="BP62" s="59"/>
-      <c r="BQ62" s="59"/>
-      <c r="BR62" s="59"/>
-      <c r="BS62" s="59"/>
-      <c r="BT62" s="59"/>
-      <c r="BU62" s="59"/>
-      <c r="BV62" s="59"/>
-      <c r="BW62" s="59"/>
-      <c r="BX62" s="59"/>
-      <c r="BY62" s="59"/>
-      <c r="BZ62" s="59"/>
-      <c r="CA62" s="59"/>
-      <c r="CB62" s="59"/>
-      <c r="CC62" s="59"/>
-      <c r="CD62" s="59"/>
-      <c r="CE62" s="59"/>
-      <c r="CF62" s="59"/>
-      <c r="CG62" s="59"/>
-      <c r="CH62" s="59"/>
-      <c r="CI62" s="59"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="2"/>
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BJ62" s="2"/>
+      <c r="BK62" s="2"/>
+      <c r="BL62" s="2"/>
+      <c r="BM62" s="2"/>
+      <c r="BN62" s="2"/>
+      <c r="BO62" s="2"/>
+      <c r="BP62" s="2"/>
+      <c r="BQ62" s="2"/>
+      <c r="BR62" s="2"/>
+      <c r="BS62" s="2"/>
+      <c r="BT62" s="2"/>
+      <c r="BU62" s="2"/>
+      <c r="BV62" s="2"/>
+      <c r="BW62" s="2"/>
+      <c r="BX62" s="2"/>
+      <c r="BY62" s="2"/>
+      <c r="BZ62" s="2"/>
+      <c r="CA62" s="2"/>
+      <c r="CB62" s="2"/>
+      <c r="CC62" s="2"/>
+      <c r="CD62" s="2"/>
+      <c r="CE62" s="2"/>
+      <c r="CF62" s="2"/>
+      <c r="CG62" s="2"/>
+      <c r="CH62" s="2"/>
+      <c r="CI62" s="2"/>
       <c r="CJ62" s="2"/>
       <c r="CK62" s="2"/>
     </row>
@@ -18146,39 +18139,39 @@
       <c r="AZ63" s="6" t="s">
         <v>1207</v>
       </c>
-      <c r="BC63" s="59"/>
-      <c r="BD63" s="59"/>
-      <c r="BE63" s="59"/>
-      <c r="BF63" s="59"/>
-      <c r="BG63" s="59"/>
-      <c r="BH63" s="59"/>
-      <c r="BI63" s="59"/>
-      <c r="BJ63" s="59"/>
-      <c r="BK63" s="59"/>
-      <c r="BL63" s="59"/>
-      <c r="BM63" s="59"/>
-      <c r="BN63" s="59"/>
-      <c r="BO63" s="59"/>
-      <c r="BP63" s="59"/>
-      <c r="BQ63" s="59"/>
-      <c r="BR63" s="59"/>
-      <c r="BS63" s="59"/>
-      <c r="BT63" s="59"/>
-      <c r="BU63" s="59"/>
-      <c r="BV63" s="59"/>
-      <c r="BW63" s="59"/>
-      <c r="BX63" s="59"/>
-      <c r="BY63" s="59"/>
-      <c r="BZ63" s="59"/>
-      <c r="CA63" s="59"/>
-      <c r="CB63" s="59"/>
-      <c r="CC63" s="59"/>
-      <c r="CD63" s="59"/>
-      <c r="CE63" s="59"/>
-      <c r="CF63" s="59"/>
-      <c r="CG63" s="59"/>
-      <c r="CH63" s="59"/>
-      <c r="CI63" s="59"/>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="2"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="2"/>
+      <c r="BK63" s="2"/>
+      <c r="BL63" s="2"/>
+      <c r="BM63" s="2"/>
+      <c r="BN63" s="2"/>
+      <c r="BO63" s="2"/>
+      <c r="BP63" s="2"/>
+      <c r="BQ63" s="2"/>
+      <c r="BR63" s="2"/>
+      <c r="BS63" s="2"/>
+      <c r="BT63" s="2"/>
+      <c r="BU63" s="2"/>
+      <c r="BV63" s="2"/>
+      <c r="BW63" s="2"/>
+      <c r="BX63" s="2"/>
+      <c r="BY63" s="2"/>
+      <c r="BZ63" s="2"/>
+      <c r="CA63" s="2"/>
+      <c r="CB63" s="2"/>
+      <c r="CC63" s="2"/>
+      <c r="CD63" s="2"/>
+      <c r="CE63" s="2"/>
+      <c r="CF63" s="2"/>
+      <c r="CG63" s="2"/>
+      <c r="CH63" s="2"/>
+      <c r="CI63" s="2"/>
       <c r="CJ63" s="2"/>
       <c r="CK63" s="2"/>
     </row>
@@ -18285,39 +18278,39 @@
       <c r="AZ64" s="48"/>
       <c r="BA64" s="48"/>
       <c r="BB64" s="48"/>
-      <c r="BC64" s="59"/>
-      <c r="BD64" s="59"/>
-      <c r="BE64" s="59"/>
-      <c r="BF64" s="59"/>
-      <c r="BG64" s="59"/>
-      <c r="BH64" s="59"/>
-      <c r="BI64" s="59"/>
-      <c r="BJ64" s="59"/>
-      <c r="BK64" s="59"/>
-      <c r="BL64" s="59"/>
-      <c r="BM64" s="59"/>
-      <c r="BN64" s="59"/>
-      <c r="BO64" s="59"/>
-      <c r="BP64" s="59"/>
-      <c r="BQ64" s="59"/>
-      <c r="BR64" s="59"/>
-      <c r="BS64" s="59"/>
-      <c r="BT64" s="59"/>
-      <c r="BU64" s="59"/>
-      <c r="BV64" s="59"/>
-      <c r="BW64" s="59"/>
-      <c r="BX64" s="59"/>
-      <c r="BY64" s="59"/>
-      <c r="BZ64" s="59"/>
-      <c r="CA64" s="59"/>
-      <c r="CB64" s="59"/>
-      <c r="CC64" s="59"/>
-      <c r="CD64" s="59"/>
-      <c r="CE64" s="59"/>
-      <c r="CF64" s="59"/>
-      <c r="CG64" s="59"/>
-      <c r="CH64" s="59"/>
-      <c r="CI64" s="59"/>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="2"/>
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BJ64" s="2"/>
+      <c r="BK64" s="2"/>
+      <c r="BL64" s="2"/>
+      <c r="BM64" s="2"/>
+      <c r="BN64" s="2"/>
+      <c r="BO64" s="2"/>
+      <c r="BP64" s="2"/>
+      <c r="BQ64" s="2"/>
+      <c r="BR64" s="2"/>
+      <c r="BS64" s="2"/>
+      <c r="BT64" s="2"/>
+      <c r="BU64" s="2"/>
+      <c r="BV64" s="2"/>
+      <c r="BW64" s="2"/>
+      <c r="BX64" s="2"/>
+      <c r="BY64" s="2"/>
+      <c r="BZ64" s="2"/>
+      <c r="CA64" s="2"/>
+      <c r="CB64" s="2"/>
+      <c r="CC64" s="2"/>
+      <c r="CD64" s="2"/>
+      <c r="CE64" s="2"/>
+      <c r="CF64" s="2"/>
+      <c r="CG64" s="2"/>
+      <c r="CH64" s="2"/>
+      <c r="CI64" s="2"/>
     </row>
     <row r="65" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
@@ -18449,39 +18442,39 @@
       <c r="BB65" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="BC65" s="59"/>
-      <c r="BD65" s="59"/>
-      <c r="BE65" s="59"/>
-      <c r="BF65" s="59"/>
-      <c r="BG65" s="59"/>
-      <c r="BH65" s="59"/>
-      <c r="BI65" s="59"/>
-      <c r="BJ65" s="59"/>
-      <c r="BK65" s="59"/>
-      <c r="BL65" s="59"/>
-      <c r="BM65" s="59"/>
-      <c r="BN65" s="59"/>
-      <c r="BO65" s="59"/>
-      <c r="BP65" s="59"/>
-      <c r="BQ65" s="59"/>
-      <c r="BR65" s="59"/>
-      <c r="BS65" s="59"/>
-      <c r="BT65" s="59"/>
-      <c r="BU65" s="59"/>
-      <c r="BV65" s="59"/>
-      <c r="BW65" s="59"/>
-      <c r="BX65" s="59"/>
-      <c r="BY65" s="59"/>
-      <c r="BZ65" s="59"/>
-      <c r="CA65" s="59"/>
-      <c r="CB65" s="59"/>
-      <c r="CC65" s="59"/>
-      <c r="CD65" s="59"/>
-      <c r="CE65" s="59"/>
-      <c r="CF65" s="59"/>
-      <c r="CG65" s="59"/>
-      <c r="CH65" s="59"/>
-      <c r="CI65" s="59"/>
+      <c r="BC65" s="2"/>
+      <c r="BD65" s="2"/>
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+      <c r="BJ65" s="2"/>
+      <c r="BK65" s="2"/>
+      <c r="BL65" s="2"/>
+      <c r="BM65" s="2"/>
+      <c r="BN65" s="2"/>
+      <c r="BO65" s="2"/>
+      <c r="BP65" s="2"/>
+      <c r="BQ65" s="2"/>
+      <c r="BR65" s="2"/>
+      <c r="BS65" s="2"/>
+      <c r="BT65" s="2"/>
+      <c r="BU65" s="2"/>
+      <c r="BV65" s="2"/>
+      <c r="BW65" s="2"/>
+      <c r="BX65" s="2"/>
+      <c r="BY65" s="2"/>
+      <c r="BZ65" s="2"/>
+      <c r="CA65" s="2"/>
+      <c r="CB65" s="2"/>
+      <c r="CC65" s="2"/>
+      <c r="CD65" s="2"/>
+      <c r="CE65" s="2"/>
+      <c r="CF65" s="2"/>
+      <c r="CG65" s="2"/>
+      <c r="CH65" s="2"/>
+      <c r="CI65" s="2"/>
       <c r="CJ65" s="2"/>
       <c r="CK65" s="2"/>
     </row>
@@ -18612,39 +18605,39 @@
       <c r="BB66" s="6" t="s">
         <v>1033</v>
       </c>
-      <c r="BC66" s="59"/>
-      <c r="BD66" s="59"/>
-      <c r="BE66" s="59"/>
-      <c r="BF66" s="59"/>
-      <c r="BG66" s="59"/>
-      <c r="BH66" s="59"/>
-      <c r="BI66" s="59"/>
-      <c r="BJ66" s="59"/>
-      <c r="BK66" s="59"/>
-      <c r="BL66" s="59"/>
-      <c r="BM66" s="59"/>
-      <c r="BN66" s="59"/>
-      <c r="BO66" s="59"/>
-      <c r="BP66" s="59"/>
-      <c r="BQ66" s="59"/>
-      <c r="BR66" s="59"/>
-      <c r="BS66" s="59"/>
-      <c r="BT66" s="59"/>
-      <c r="BU66" s="59"/>
-      <c r="BV66" s="59"/>
-      <c r="BW66" s="59"/>
-      <c r="BX66" s="59"/>
-      <c r="BY66" s="59"/>
-      <c r="BZ66" s="59"/>
-      <c r="CA66" s="59"/>
-      <c r="CB66" s="59"/>
-      <c r="CC66" s="59"/>
-      <c r="CD66" s="59"/>
-      <c r="CE66" s="59"/>
-      <c r="CF66" s="59"/>
-      <c r="CG66" s="59"/>
-      <c r="CH66" s="59"/>
-      <c r="CI66" s="59"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="2"/>
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BJ66" s="2"/>
+      <c r="BK66" s="2"/>
+      <c r="BL66" s="2"/>
+      <c r="BM66" s="2"/>
+      <c r="BN66" s="2"/>
+      <c r="BO66" s="2"/>
+      <c r="BP66" s="2"/>
+      <c r="BQ66" s="2"/>
+      <c r="BR66" s="2"/>
+      <c r="BS66" s="2"/>
+      <c r="BT66" s="2"/>
+      <c r="BU66" s="2"/>
+      <c r="BV66" s="2"/>
+      <c r="BW66" s="2"/>
+      <c r="BX66" s="2"/>
+      <c r="BY66" s="2"/>
+      <c r="BZ66" s="2"/>
+      <c r="CA66" s="2"/>
+      <c r="CB66" s="2"/>
+      <c r="CC66" s="2"/>
+      <c r="CD66" s="2"/>
+      <c r="CE66" s="2"/>
+      <c r="CF66" s="2"/>
+      <c r="CG66" s="2"/>
+      <c r="CH66" s="2"/>
+      <c r="CI66" s="2"/>
       <c r="CJ66" s="2"/>
       <c r="CK66" s="2"/>
     </row>
@@ -18771,39 +18764,39 @@
       <c r="BB67" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="BC67" s="59"/>
-      <c r="BD67" s="59"/>
-      <c r="BE67" s="59"/>
-      <c r="BF67" s="59"/>
-      <c r="BG67" s="59"/>
-      <c r="BH67" s="59"/>
-      <c r="BI67" s="59"/>
-      <c r="BJ67" s="59"/>
-      <c r="BK67" s="59"/>
-      <c r="BL67" s="59"/>
-      <c r="BM67" s="59"/>
-      <c r="BN67" s="59"/>
-      <c r="BO67" s="59"/>
-      <c r="BP67" s="59"/>
-      <c r="BQ67" s="59"/>
-      <c r="BR67" s="59"/>
-      <c r="BS67" s="59"/>
-      <c r="BT67" s="59"/>
-      <c r="BU67" s="59"/>
-      <c r="BV67" s="59"/>
-      <c r="BW67" s="59"/>
-      <c r="BX67" s="59"/>
-      <c r="BY67" s="59"/>
-      <c r="BZ67" s="59"/>
-      <c r="CA67" s="59"/>
-      <c r="CB67" s="59"/>
-      <c r="CC67" s="59"/>
-      <c r="CD67" s="59"/>
-      <c r="CE67" s="59"/>
-      <c r="CF67" s="59"/>
-      <c r="CG67" s="59"/>
-      <c r="CH67" s="59"/>
-      <c r="CI67" s="59"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="2"/>
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+      <c r="BJ67" s="2"/>
+      <c r="BK67" s="2"/>
+      <c r="BL67" s="2"/>
+      <c r="BM67" s="2"/>
+      <c r="BN67" s="2"/>
+      <c r="BO67" s="2"/>
+      <c r="BP67" s="2"/>
+      <c r="BQ67" s="2"/>
+      <c r="BR67" s="2"/>
+      <c r="BS67" s="2"/>
+      <c r="BT67" s="2"/>
+      <c r="BU67" s="2"/>
+      <c r="BV67" s="2"/>
+      <c r="BW67" s="2"/>
+      <c r="BX67" s="2"/>
+      <c r="BY67" s="2"/>
+      <c r="BZ67" s="2"/>
+      <c r="CA67" s="2"/>
+      <c r="CB67" s="2"/>
+      <c r="CC67" s="2"/>
+      <c r="CD67" s="2"/>
+      <c r="CE67" s="2"/>
+      <c r="CF67" s="2"/>
+      <c r="CG67" s="2"/>
+      <c r="CH67" s="2"/>
+      <c r="CI67" s="2"/>
       <c r="CJ67" s="2"/>
       <c r="CK67" s="2"/>
     </row>
@@ -18893,39 +18886,39 @@
         <v>1005</v>
       </c>
       <c r="BB68" s="6"/>
-      <c r="BC68" s="59"/>
-      <c r="BD68" s="59"/>
-      <c r="BE68" s="59"/>
-      <c r="BF68" s="59"/>
-      <c r="BG68" s="59"/>
-      <c r="BH68" s="59"/>
-      <c r="BI68" s="59"/>
-      <c r="BJ68" s="59"/>
-      <c r="BK68" s="59"/>
-      <c r="BL68" s="59"/>
-      <c r="BM68" s="59"/>
-      <c r="BN68" s="59"/>
-      <c r="BO68" s="59"/>
-      <c r="BP68" s="59"/>
-      <c r="BQ68" s="59"/>
-      <c r="BR68" s="59"/>
-      <c r="BS68" s="59"/>
-      <c r="BT68" s="59"/>
-      <c r="BU68" s="59"/>
-      <c r="BV68" s="59"/>
-      <c r="BW68" s="59"/>
-      <c r="BX68" s="59"/>
-      <c r="BY68" s="59"/>
-      <c r="BZ68" s="59"/>
-      <c r="CA68" s="59"/>
-      <c r="CB68" s="59"/>
-      <c r="CC68" s="59"/>
-      <c r="CD68" s="59"/>
-      <c r="CE68" s="59"/>
-      <c r="CF68" s="59"/>
-      <c r="CG68" s="59"/>
-      <c r="CH68" s="59"/>
-      <c r="CI68" s="59"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="2"/>
+      <c r="BR68" s="2"/>
+      <c r="BS68" s="2"/>
+      <c r="BT68" s="2"/>
+      <c r="BU68" s="2"/>
+      <c r="BV68" s="2"/>
+      <c r="BW68" s="2"/>
+      <c r="BX68" s="2"/>
+      <c r="BY68" s="2"/>
+      <c r="BZ68" s="2"/>
+      <c r="CA68" s="2"/>
+      <c r="CB68" s="2"/>
+      <c r="CC68" s="2"/>
+      <c r="CD68" s="2"/>
+      <c r="CE68" s="2"/>
+      <c r="CF68" s="2"/>
+      <c r="CG68" s="2"/>
+      <c r="CH68" s="2"/>
+      <c r="CI68" s="2"/>
       <c r="CJ68" s="2"/>
       <c r="CK68" s="2"/>
     </row>
@@ -19044,39 +19037,39 @@
       <c r="AZ69" s="9"/>
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
-      <c r="BC69" s="59"/>
-      <c r="BD69" s="59"/>
-      <c r="BE69" s="59"/>
-      <c r="BF69" s="59"/>
-      <c r="BG69" s="59"/>
-      <c r="BH69" s="59"/>
-      <c r="BI69" s="59"/>
-      <c r="BJ69" s="59"/>
-      <c r="BK69" s="59"/>
-      <c r="BL69" s="59"/>
-      <c r="BM69" s="59"/>
-      <c r="BN69" s="59"/>
-      <c r="BO69" s="59"/>
-      <c r="BP69" s="59"/>
-      <c r="BQ69" s="59"/>
-      <c r="BR69" s="59"/>
-      <c r="BS69" s="59"/>
-      <c r="BT69" s="59"/>
-      <c r="BU69" s="59"/>
-      <c r="BV69" s="59"/>
-      <c r="BW69" s="59"/>
-      <c r="BX69" s="59"/>
-      <c r="BY69" s="59"/>
-      <c r="BZ69" s="59"/>
-      <c r="CA69" s="59"/>
-      <c r="CB69" s="59"/>
-      <c r="CC69" s="59"/>
-      <c r="CD69" s="59"/>
-      <c r="CE69" s="59"/>
-      <c r="CF69" s="59"/>
-      <c r="CG69" s="59"/>
-      <c r="CH69" s="59"/>
-      <c r="CI69" s="59"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="2"/>
+      <c r="BK69" s="2"/>
+      <c r="BL69" s="2"/>
+      <c r="BM69" s="2"/>
+      <c r="BN69" s="2"/>
+      <c r="BO69" s="2"/>
+      <c r="BP69" s="2"/>
+      <c r="BQ69" s="2"/>
+      <c r="BR69" s="2"/>
+      <c r="BS69" s="2"/>
+      <c r="BT69" s="2"/>
+      <c r="BU69" s="2"/>
+      <c r="BV69" s="2"/>
+      <c r="BW69" s="2"/>
+      <c r="BX69" s="2"/>
+      <c r="BY69" s="2"/>
+      <c r="BZ69" s="2"/>
+      <c r="CA69" s="2"/>
+      <c r="CB69" s="2"/>
+      <c r="CC69" s="2"/>
+      <c r="CD69" s="2"/>
+      <c r="CE69" s="2"/>
+      <c r="CF69" s="2"/>
+      <c r="CG69" s="2"/>
+      <c r="CH69" s="2"/>
+      <c r="CI69" s="2"/>
       <c r="CJ69" s="2"/>
       <c r="CK69" s="2"/>
     </row>
@@ -19182,39 +19175,39 @@
       <c r="BB70" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="BC70" s="60"/>
-      <c r="BD70" s="60"/>
-      <c r="BE70" s="60"/>
-      <c r="BF70" s="60"/>
-      <c r="BG70" s="60"/>
-      <c r="BH70" s="60"/>
-      <c r="BI70" s="60"/>
-      <c r="BJ70" s="60"/>
-      <c r="BK70" s="60"/>
-      <c r="BL70" s="60"/>
-      <c r="BM70" s="60"/>
-      <c r="BN70" s="60"/>
-      <c r="BO70" s="60"/>
-      <c r="BP70" s="60"/>
-      <c r="BQ70" s="60"/>
-      <c r="BR70" s="60"/>
-      <c r="BS70" s="60"/>
-      <c r="BT70" s="60"/>
-      <c r="BU70" s="60"/>
-      <c r="BV70" s="60"/>
-      <c r="BW70" s="60"/>
-      <c r="BX70" s="60"/>
-      <c r="BY70" s="60"/>
-      <c r="BZ70" s="60"/>
-      <c r="CA70" s="60"/>
-      <c r="CB70" s="60"/>
-      <c r="CC70" s="60"/>
-      <c r="CD70" s="60"/>
-      <c r="CE70" s="60"/>
-      <c r="CF70" s="60"/>
-      <c r="CG70" s="60"/>
-      <c r="CH70" s="60"/>
-      <c r="CI70" s="60"/>
+      <c r="BC70" s="17"/>
+      <c r="BD70" s="17"/>
+      <c r="BE70" s="17"/>
+      <c r="BF70" s="17"/>
+      <c r="BG70" s="17"/>
+      <c r="BH70" s="17"/>
+      <c r="BI70" s="17"/>
+      <c r="BJ70" s="17"/>
+      <c r="BK70" s="17"/>
+      <c r="BL70" s="17"/>
+      <c r="BM70" s="17"/>
+      <c r="BN70" s="17"/>
+      <c r="BO70" s="17"/>
+      <c r="BP70" s="17"/>
+      <c r="BQ70" s="17"/>
+      <c r="BR70" s="17"/>
+      <c r="BS70" s="17"/>
+      <c r="BT70" s="17"/>
+      <c r="BU70" s="17"/>
+      <c r="BV70" s="17"/>
+      <c r="BW70" s="17"/>
+      <c r="BX70" s="17"/>
+      <c r="BY70" s="17"/>
+      <c r="BZ70" s="17"/>
+      <c r="CA70" s="17"/>
+      <c r="CB70" s="17"/>
+      <c r="CC70" s="17"/>
+      <c r="CD70" s="17"/>
+      <c r="CE70" s="17"/>
+      <c r="CF70" s="17"/>
+      <c r="CG70" s="17"/>
+      <c r="CH70" s="17"/>
+      <c r="CI70" s="17"/>
       <c r="CJ70" s="17"/>
       <c r="CK70" s="17"/>
     </row>
@@ -19367,39 +19360,39 @@
       <c r="AZ71" s="12"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="12"/>
-      <c r="BC71" s="59"/>
-      <c r="BD71" s="59"/>
-      <c r="BE71" s="59"/>
-      <c r="BF71" s="59"/>
-      <c r="BG71" s="59"/>
-      <c r="BH71" s="59"/>
-      <c r="BI71" s="59"/>
-      <c r="BJ71" s="59"/>
-      <c r="BK71" s="59"/>
-      <c r="BL71" s="59"/>
-      <c r="BM71" s="59"/>
-      <c r="BN71" s="59"/>
-      <c r="BO71" s="59"/>
-      <c r="BP71" s="59"/>
-      <c r="BQ71" s="59"/>
-      <c r="BR71" s="59"/>
-      <c r="BS71" s="59"/>
-      <c r="BT71" s="59"/>
-      <c r="BU71" s="59"/>
-      <c r="BV71" s="59"/>
-      <c r="BW71" s="59"/>
-      <c r="BX71" s="59"/>
-      <c r="BY71" s="59"/>
-      <c r="BZ71" s="59"/>
-      <c r="CA71" s="59"/>
-      <c r="CB71" s="59"/>
-      <c r="CC71" s="59"/>
-      <c r="CD71" s="59"/>
-      <c r="CE71" s="59"/>
-      <c r="CF71" s="59"/>
-      <c r="CG71" s="59"/>
-      <c r="CH71" s="59"/>
-      <c r="CI71" s="59"/>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="2"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="2"/>
+      <c r="BK71" s="2"/>
+      <c r="BL71" s="2"/>
+      <c r="BM71" s="2"/>
+      <c r="BN71" s="2"/>
+      <c r="BO71" s="2"/>
+      <c r="BP71" s="2"/>
+      <c r="BQ71" s="2"/>
+      <c r="BR71" s="2"/>
+      <c r="BS71" s="2"/>
+      <c r="BT71" s="2"/>
+      <c r="BU71" s="2"/>
+      <c r="BV71" s="2"/>
+      <c r="BW71" s="2"/>
+      <c r="BX71" s="2"/>
+      <c r="BY71" s="2"/>
+      <c r="BZ71" s="2"/>
+      <c r="CA71" s="2"/>
+      <c r="CB71" s="2"/>
+      <c r="CC71" s="2"/>
+      <c r="CD71" s="2"/>
+      <c r="CE71" s="2"/>
+      <c r="CF71" s="2"/>
+      <c r="CG71" s="2"/>
+      <c r="CH71" s="2"/>
+      <c r="CI71" s="2"/>
       <c r="CJ71" s="2"/>
       <c r="CK71" s="2"/>
     </row>
@@ -19521,46 +19514,46 @@
       <c r="AV72" s="4"/>
       <c r="AW72" s="4"/>
       <c r="AX72" s="4"/>
-      <c r="AZ72" s="65" t="s">
+      <c r="AZ72" s="63" t="s">
         <v>1001</v>
       </c>
-      <c r="BC72" s="59"/>
-      <c r="BD72" s="59"/>
-      <c r="BE72" s="59"/>
-      <c r="BF72" s="59"/>
-      <c r="BG72" s="59"/>
-      <c r="BH72" s="59"/>
-      <c r="BI72" s="59"/>
-      <c r="BJ72" s="59"/>
-      <c r="BK72" s="59"/>
-      <c r="BL72" s="59"/>
-      <c r="BM72" s="59"/>
-      <c r="BN72" s="59"/>
-      <c r="BO72" s="59"/>
-      <c r="BP72" s="59"/>
-      <c r="BQ72" s="59"/>
-      <c r="BR72" s="59"/>
-      <c r="BS72" s="59"/>
-      <c r="BT72" s="59"/>
-      <c r="BU72" s="59"/>
-      <c r="BV72" s="59"/>
-      <c r="BW72" s="59"/>
-      <c r="BX72" s="59"/>
-      <c r="BY72" s="59"/>
-      <c r="BZ72" s="59"/>
-      <c r="CA72" s="59"/>
-      <c r="CB72" s="59"/>
-      <c r="CC72" s="59"/>
-      <c r="CD72" s="59"/>
-      <c r="CE72" s="59"/>
-      <c r="CF72" s="59"/>
-      <c r="CG72" s="59"/>
-      <c r="CH72" s="59"/>
-      <c r="CI72" s="59"/>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="2"/>
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+      <c r="BJ72" s="2"/>
+      <c r="BK72" s="2"/>
+      <c r="BL72" s="2"/>
+      <c r="BM72" s="2"/>
+      <c r="BN72" s="2"/>
+      <c r="BO72" s="2"/>
+      <c r="BP72" s="2"/>
+      <c r="BQ72" s="2"/>
+      <c r="BR72" s="2"/>
+      <c r="BS72" s="2"/>
+      <c r="BT72" s="2"/>
+      <c r="BU72" s="2"/>
+      <c r="BV72" s="2"/>
+      <c r="BW72" s="2"/>
+      <c r="BX72" s="2"/>
+      <c r="BY72" s="2"/>
+      <c r="BZ72" s="2"/>
+      <c r="CA72" s="2"/>
+      <c r="CB72" s="2"/>
+      <c r="CC72" s="2"/>
+      <c r="CD72" s="2"/>
+      <c r="CE72" s="2"/>
+      <c r="CF72" s="2"/>
+      <c r="CG72" s="2"/>
+      <c r="CH72" s="2"/>
+      <c r="CI72" s="2"/>
       <c r="CJ72" s="2"/>
       <c r="CK72" s="2"/>
     </row>
-    <row r="73" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>901</v>
       </c>
@@ -19679,43 +19672,43 @@
       <c r="BB73" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="BC73" s="59"/>
-      <c r="BD73" s="59"/>
-      <c r="BE73" s="59"/>
-      <c r="BF73" s="59"/>
-      <c r="BG73" s="59"/>
-      <c r="BH73" s="59"/>
-      <c r="BI73" s="59"/>
-      <c r="BJ73" s="59"/>
-      <c r="BK73" s="59"/>
-      <c r="BL73" s="59"/>
-      <c r="BM73" s="59"/>
-      <c r="BN73" s="59"/>
-      <c r="BO73" s="59"/>
-      <c r="BP73" s="59"/>
-      <c r="BQ73" s="59"/>
-      <c r="BR73" s="59"/>
-      <c r="BS73" s="59"/>
-      <c r="BT73" s="59"/>
-      <c r="BU73" s="59"/>
-      <c r="BV73" s="59"/>
-      <c r="BW73" s="59"/>
-      <c r="BX73" s="59"/>
-      <c r="BY73" s="59"/>
-      <c r="BZ73" s="59"/>
-      <c r="CA73" s="59"/>
-      <c r="CB73" s="59"/>
-      <c r="CC73" s="59"/>
-      <c r="CD73" s="59"/>
-      <c r="CE73" s="59"/>
-      <c r="CF73" s="59"/>
-      <c r="CG73" s="59"/>
-      <c r="CH73" s="59"/>
-      <c r="CI73" s="59"/>
+      <c r="BC73" s="2"/>
+      <c r="BD73" s="2"/>
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+      <c r="BJ73" s="2"/>
+      <c r="BK73" s="2"/>
+      <c r="BL73" s="2"/>
+      <c r="BM73" s="2"/>
+      <c r="BN73" s="2"/>
+      <c r="BO73" s="2"/>
+      <c r="BP73" s="2"/>
+      <c r="BQ73" s="2"/>
+      <c r="BR73" s="2"/>
+      <c r="BS73" s="2"/>
+      <c r="BT73" s="2"/>
+      <c r="BU73" s="2"/>
+      <c r="BV73" s="2"/>
+      <c r="BW73" s="2"/>
+      <c r="BX73" s="2"/>
+      <c r="BY73" s="2"/>
+      <c r="BZ73" s="2"/>
+      <c r="CA73" s="2"/>
+      <c r="CB73" s="2"/>
+      <c r="CC73" s="2"/>
+      <c r="CD73" s="2"/>
+      <c r="CE73" s="2"/>
+      <c r="CF73" s="2"/>
+      <c r="CG73" s="2"/>
+      <c r="CH73" s="2"/>
+      <c r="CI73" s="2"/>
       <c r="CJ73" s="2"/>
       <c r="CK73" s="2"/>
     </row>
-    <row r="74" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>923</v>
       </c>
@@ -19819,50 +19812,50 @@
       <c r="AW74" s="4"/>
       <c r="AX74" s="4"/>
       <c r="AY74" s="9"/>
-      <c r="AZ74" s="65" t="s">
+      <c r="AZ74" s="63" t="s">
         <v>1003</v>
       </c>
       <c r="BA74" s="9"/>
       <c r="BB74" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="BC74" s="59"/>
-      <c r="BD74" s="59"/>
-      <c r="BE74" s="59"/>
-      <c r="BF74" s="59"/>
-      <c r="BG74" s="59"/>
-      <c r="BH74" s="59"/>
-      <c r="BI74" s="59"/>
-      <c r="BJ74" s="59"/>
-      <c r="BK74" s="59"/>
-      <c r="BL74" s="59"/>
-      <c r="BM74" s="59"/>
-      <c r="BN74" s="59"/>
-      <c r="BO74" s="59"/>
-      <c r="BP74" s="59"/>
-      <c r="BQ74" s="59"/>
-      <c r="BR74" s="59"/>
-      <c r="BS74" s="59"/>
-      <c r="BT74" s="59"/>
-      <c r="BU74" s="59"/>
-      <c r="BV74" s="59"/>
-      <c r="BW74" s="59"/>
-      <c r="BX74" s="59"/>
-      <c r="BY74" s="59"/>
-      <c r="BZ74" s="59"/>
-      <c r="CA74" s="59"/>
-      <c r="CB74" s="59"/>
-      <c r="CC74" s="59"/>
-      <c r="CD74" s="59"/>
-      <c r="CE74" s="59"/>
-      <c r="CF74" s="59"/>
-      <c r="CG74" s="59"/>
-      <c r="CH74" s="59"/>
-      <c r="CI74" s="59"/>
+      <c r="BC74" s="2"/>
+      <c r="BD74" s="2"/>
+      <c r="BE74" s="2"/>
+      <c r="BF74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+      <c r="BJ74" s="2"/>
+      <c r="BK74" s="2"/>
+      <c r="BL74" s="2"/>
+      <c r="BM74" s="2"/>
+      <c r="BN74" s="2"/>
+      <c r="BO74" s="2"/>
+      <c r="BP74" s="2"/>
+      <c r="BQ74" s="2"/>
+      <c r="BR74" s="2"/>
+      <c r="BS74" s="2"/>
+      <c r="BT74" s="2"/>
+      <c r="BU74" s="2"/>
+      <c r="BV74" s="2"/>
+      <c r="BW74" s="2"/>
+      <c r="BX74" s="2"/>
+      <c r="BY74" s="2"/>
+      <c r="BZ74" s="2"/>
+      <c r="CA74" s="2"/>
+      <c r="CB74" s="2"/>
+      <c r="CC74" s="2"/>
+      <c r="CD74" s="2"/>
+      <c r="CE74" s="2"/>
+      <c r="CF74" s="2"/>
+      <c r="CG74" s="2"/>
+      <c r="CH74" s="2"/>
+      <c r="CI74" s="2"/>
       <c r="CJ74" s="2"/>
       <c r="CK74" s="2"/>
     </row>
-    <row r="75" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>925</v>
       </c>
@@ -19953,39 +19946,39 @@
       <c r="BB75" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="BC75" s="59"/>
-      <c r="BD75" s="59"/>
-      <c r="BE75" s="59"/>
-      <c r="BF75" s="59"/>
-      <c r="BG75" s="59"/>
-      <c r="BH75" s="59"/>
-      <c r="BI75" s="59"/>
-      <c r="BJ75" s="59"/>
-      <c r="BK75" s="59"/>
-      <c r="BL75" s="59"/>
-      <c r="BM75" s="59"/>
-      <c r="BN75" s="59"/>
-      <c r="BO75" s="59"/>
-      <c r="BP75" s="59"/>
-      <c r="BQ75" s="59"/>
-      <c r="BR75" s="59"/>
-      <c r="BS75" s="59"/>
-      <c r="BT75" s="59"/>
-      <c r="BU75" s="59"/>
-      <c r="BV75" s="59"/>
-      <c r="BW75" s="59"/>
-      <c r="BX75" s="59"/>
-      <c r="BY75" s="59"/>
-      <c r="BZ75" s="59"/>
-      <c r="CA75" s="59"/>
-      <c r="CB75" s="59"/>
-      <c r="CC75" s="59"/>
-      <c r="CD75" s="59"/>
-      <c r="CE75" s="59"/>
-      <c r="CF75" s="59"/>
-      <c r="CG75" s="59"/>
-      <c r="CH75" s="59"/>
-      <c r="CI75" s="59"/>
+      <c r="BC75" s="2"/>
+      <c r="BD75" s="2"/>
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="2"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+      <c r="BJ75" s="2"/>
+      <c r="BK75" s="2"/>
+      <c r="BL75" s="2"/>
+      <c r="BM75" s="2"/>
+      <c r="BN75" s="2"/>
+      <c r="BO75" s="2"/>
+      <c r="BP75" s="2"/>
+      <c r="BQ75" s="2"/>
+      <c r="BR75" s="2"/>
+      <c r="BS75" s="2"/>
+      <c r="BT75" s="2"/>
+      <c r="BU75" s="2"/>
+      <c r="BV75" s="2"/>
+      <c r="BW75" s="2"/>
+      <c r="BX75" s="2"/>
+      <c r="BY75" s="2"/>
+      <c r="BZ75" s="2"/>
+      <c r="CA75" s="2"/>
+      <c r="CB75" s="2"/>
+      <c r="CC75" s="2"/>
+      <c r="CD75" s="2"/>
+      <c r="CE75" s="2"/>
+      <c r="CF75" s="2"/>
+      <c r="CG75" s="2"/>
+      <c r="CH75" s="2"/>
+      <c r="CI75" s="2"/>
       <c r="CJ75" s="2"/>
       <c r="CK75" s="2"/>
     </row>
@@ -20195,46 +20188,46 @@
       <c r="AW77" s="21"/>
       <c r="AX77" s="21"/>
       <c r="AY77" s="12"/>
-      <c r="AZ77" s="62" t="s">
+      <c r="AZ77" s="60" t="s">
         <v>956</v>
       </c>
       <c r="BA77" s="12"/>
       <c r="BB77" s="12" t="s">
         <v>1037</v>
       </c>
-      <c r="BC77" s="59"/>
-      <c r="BD77" s="59"/>
-      <c r="BE77" s="59"/>
-      <c r="BF77" s="59"/>
-      <c r="BG77" s="59"/>
-      <c r="BH77" s="59"/>
-      <c r="BI77" s="59"/>
-      <c r="BJ77" s="59"/>
-      <c r="BK77" s="59"/>
-      <c r="BL77" s="59"/>
-      <c r="BM77" s="59"/>
-      <c r="BN77" s="59"/>
-      <c r="BO77" s="59"/>
-      <c r="BP77" s="59"/>
-      <c r="BQ77" s="59"/>
-      <c r="BR77" s="59"/>
-      <c r="BS77" s="59"/>
-      <c r="BT77" s="59"/>
-      <c r="BU77" s="59"/>
-      <c r="BV77" s="59"/>
-      <c r="BW77" s="59"/>
-      <c r="BX77" s="59"/>
-      <c r="BY77" s="59"/>
-      <c r="BZ77" s="59"/>
-      <c r="CA77" s="59"/>
-      <c r="CB77" s="59"/>
-      <c r="CC77" s="59"/>
-      <c r="CD77" s="59"/>
-      <c r="CE77" s="59"/>
-      <c r="CF77" s="59"/>
-      <c r="CG77" s="59"/>
-      <c r="CH77" s="59"/>
-      <c r="CI77" s="59"/>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="2"/>
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+      <c r="BJ77" s="2"/>
+      <c r="BK77" s="2"/>
+      <c r="BL77" s="2"/>
+      <c r="BM77" s="2"/>
+      <c r="BN77" s="2"/>
+      <c r="BO77" s="2"/>
+      <c r="BP77" s="2"/>
+      <c r="BQ77" s="2"/>
+      <c r="BR77" s="2"/>
+      <c r="BS77" s="2"/>
+      <c r="BT77" s="2"/>
+      <c r="BU77" s="2"/>
+      <c r="BV77" s="2"/>
+      <c r="BW77" s="2"/>
+      <c r="BX77" s="2"/>
+      <c r="BY77" s="2"/>
+      <c r="BZ77" s="2"/>
+      <c r="CA77" s="2"/>
+      <c r="CB77" s="2"/>
+      <c r="CC77" s="2"/>
+      <c r="CD77" s="2"/>
+      <c r="CE77" s="2"/>
+      <c r="CF77" s="2"/>
+      <c r="CG77" s="2"/>
+      <c r="CH77" s="2"/>
+      <c r="CI77" s="2"/>
       <c r="CJ77" s="2"/>
       <c r="CK77" s="2"/>
     </row>
@@ -20353,39 +20346,39 @@
       <c r="AZ78" s="21"/>
       <c r="BA78" s="21"/>
       <c r="BB78" s="21"/>
-      <c r="BC78" s="59"/>
-      <c r="BD78" s="59"/>
-      <c r="BE78" s="59"/>
-      <c r="BF78" s="59"/>
-      <c r="BG78" s="59"/>
-      <c r="BH78" s="59"/>
-      <c r="BI78" s="59"/>
-      <c r="BJ78" s="59"/>
-      <c r="BK78" s="59"/>
-      <c r="BL78" s="59"/>
-      <c r="BM78" s="59"/>
-      <c r="BN78" s="59"/>
-      <c r="BO78" s="59"/>
-      <c r="BP78" s="59"/>
-      <c r="BQ78" s="59"/>
-      <c r="BR78" s="59"/>
-      <c r="BS78" s="59"/>
-      <c r="BT78" s="59"/>
-      <c r="BU78" s="59"/>
-      <c r="BV78" s="59"/>
-      <c r="BW78" s="59"/>
-      <c r="BX78" s="59"/>
-      <c r="BY78" s="59"/>
-      <c r="BZ78" s="59"/>
-      <c r="CA78" s="59"/>
-      <c r="CB78" s="59"/>
-      <c r="CC78" s="59"/>
-      <c r="CD78" s="59"/>
-      <c r="CE78" s="59"/>
-      <c r="CF78" s="59"/>
-      <c r="CG78" s="59"/>
-      <c r="CH78" s="59"/>
-      <c r="CI78" s="59"/>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="2"/>
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BJ78" s="2"/>
+      <c r="BK78" s="2"/>
+      <c r="BL78" s="2"/>
+      <c r="BM78" s="2"/>
+      <c r="BN78" s="2"/>
+      <c r="BO78" s="2"/>
+      <c r="BP78" s="2"/>
+      <c r="BQ78" s="2"/>
+      <c r="BR78" s="2"/>
+      <c r="BS78" s="2"/>
+      <c r="BT78" s="2"/>
+      <c r="BU78" s="2"/>
+      <c r="BV78" s="2"/>
+      <c r="BW78" s="2"/>
+      <c r="BX78" s="2"/>
+      <c r="BY78" s="2"/>
+      <c r="BZ78" s="2"/>
+      <c r="CA78" s="2"/>
+      <c r="CB78" s="2"/>
+      <c r="CC78" s="2"/>
+      <c r="CD78" s="2"/>
+      <c r="CE78" s="2"/>
+      <c r="CF78" s="2"/>
+      <c r="CG78" s="2"/>
+      <c r="CH78" s="2"/>
+      <c r="CI78" s="2"/>
       <c r="CJ78" s="2"/>
       <c r="CK78" s="2"/>
     </row>
@@ -20513,44 +20506,44 @@
       <c r="AW79" s="21"/>
       <c r="AX79" s="21"/>
       <c r="AY79" s="12"/>
-      <c r="AZ79" s="62" t="s">
+      <c r="AZ79" s="60" t="s">
         <v>962</v>
       </c>
       <c r="BA79" s="12"/>
       <c r="BB79" s="12"/>
-      <c r="BC79" s="59"/>
-      <c r="BD79" s="59"/>
-      <c r="BE79" s="59"/>
-      <c r="BF79" s="59"/>
-      <c r="BG79" s="59"/>
-      <c r="BH79" s="59"/>
-      <c r="BI79" s="59"/>
-      <c r="BJ79" s="59"/>
-      <c r="BK79" s="59"/>
-      <c r="BL79" s="59"/>
-      <c r="BM79" s="59"/>
-      <c r="BN79" s="59"/>
-      <c r="BO79" s="59"/>
-      <c r="BP79" s="59"/>
-      <c r="BQ79" s="59"/>
-      <c r="BR79" s="59"/>
-      <c r="BS79" s="59"/>
-      <c r="BT79" s="59"/>
-      <c r="BU79" s="59"/>
-      <c r="BV79" s="59"/>
-      <c r="BW79" s="59"/>
-      <c r="BX79" s="59"/>
-      <c r="BY79" s="59"/>
-      <c r="BZ79" s="59"/>
-      <c r="CA79" s="59"/>
-      <c r="CB79" s="59"/>
-      <c r="CC79" s="59"/>
-      <c r="CD79" s="59"/>
-      <c r="CE79" s="59"/>
-      <c r="CF79" s="59"/>
-      <c r="CG79" s="59"/>
-      <c r="CH79" s="59"/>
-      <c r="CI79" s="59"/>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="2"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="2"/>
+      <c r="BK79" s="2"/>
+      <c r="BL79" s="2"/>
+      <c r="BM79" s="2"/>
+      <c r="BN79" s="2"/>
+      <c r="BO79" s="2"/>
+      <c r="BP79" s="2"/>
+      <c r="BQ79" s="2"/>
+      <c r="BR79" s="2"/>
+      <c r="BS79" s="2"/>
+      <c r="BT79" s="2"/>
+      <c r="BU79" s="2"/>
+      <c r="BV79" s="2"/>
+      <c r="BW79" s="2"/>
+      <c r="BX79" s="2"/>
+      <c r="BY79" s="2"/>
+      <c r="BZ79" s="2"/>
+      <c r="CA79" s="2"/>
+      <c r="CB79" s="2"/>
+      <c r="CC79" s="2"/>
+      <c r="CD79" s="2"/>
+      <c r="CE79" s="2"/>
+      <c r="CF79" s="2"/>
+      <c r="CG79" s="2"/>
+      <c r="CH79" s="2"/>
+      <c r="CI79" s="2"/>
       <c r="CJ79" s="2"/>
       <c r="CK79" s="2"/>
     </row>
@@ -20688,39 +20681,39 @@
       <c r="BB80" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="BC80" s="59"/>
-      <c r="BD80" s="59"/>
-      <c r="BE80" s="59"/>
-      <c r="BF80" s="59"/>
-      <c r="BG80" s="59"/>
-      <c r="BH80" s="59"/>
-      <c r="BI80" s="59"/>
-      <c r="BJ80" s="59"/>
-      <c r="BK80" s="59"/>
-      <c r="BL80" s="59"/>
-      <c r="BM80" s="59"/>
-      <c r="BN80" s="59"/>
-      <c r="BO80" s="59"/>
-      <c r="BP80" s="59"/>
-      <c r="BQ80" s="59"/>
-      <c r="BR80" s="59"/>
-      <c r="BS80" s="59"/>
-      <c r="BT80" s="59"/>
-      <c r="BU80" s="59"/>
-      <c r="BV80" s="59"/>
-      <c r="BW80" s="59"/>
-      <c r="BX80" s="59"/>
-      <c r="BY80" s="59"/>
-      <c r="BZ80" s="59"/>
-      <c r="CA80" s="59"/>
-      <c r="CB80" s="59"/>
-      <c r="CC80" s="59"/>
-      <c r="CD80" s="59"/>
-      <c r="CE80" s="59"/>
-      <c r="CF80" s="59"/>
-      <c r="CG80" s="59"/>
-      <c r="CH80" s="59"/>
-      <c r="CI80" s="59"/>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="2"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BJ80" s="2"/>
+      <c r="BK80" s="2"/>
+      <c r="BL80" s="2"/>
+      <c r="BM80" s="2"/>
+      <c r="BN80" s="2"/>
+      <c r="BO80" s="2"/>
+      <c r="BP80" s="2"/>
+      <c r="BQ80" s="2"/>
+      <c r="BR80" s="2"/>
+      <c r="BS80" s="2"/>
+      <c r="BT80" s="2"/>
+      <c r="BU80" s="2"/>
+      <c r="BV80" s="2"/>
+      <c r="BW80" s="2"/>
+      <c r="BX80" s="2"/>
+      <c r="BY80" s="2"/>
+      <c r="BZ80" s="2"/>
+      <c r="CA80" s="2"/>
+      <c r="CB80" s="2"/>
+      <c r="CC80" s="2"/>
+      <c r="CD80" s="2"/>
+      <c r="CE80" s="2"/>
+      <c r="CF80" s="2"/>
+      <c r="CG80" s="2"/>
+      <c r="CH80" s="2"/>
+      <c r="CI80" s="2"/>
       <c r="CJ80" s="2"/>
       <c r="CK80" s="2"/>
     </row>
@@ -20833,39 +20826,39 @@
       <c r="BB81" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="BC81" s="59"/>
-      <c r="BD81" s="59"/>
-      <c r="BE81" s="59"/>
-      <c r="BF81" s="59"/>
-      <c r="BG81" s="59"/>
-      <c r="BH81" s="59"/>
-      <c r="BI81" s="59"/>
-      <c r="BJ81" s="59"/>
-      <c r="BK81" s="59"/>
-      <c r="BL81" s="59"/>
-      <c r="BM81" s="59"/>
-      <c r="BN81" s="59"/>
-      <c r="BO81" s="59"/>
-      <c r="BP81" s="59"/>
-      <c r="BQ81" s="59"/>
-      <c r="BR81" s="59"/>
-      <c r="BS81" s="59"/>
-      <c r="BT81" s="59"/>
-      <c r="BU81" s="59"/>
-      <c r="BV81" s="59"/>
-      <c r="BW81" s="59"/>
-      <c r="BX81" s="59"/>
-      <c r="BY81" s="59"/>
-      <c r="BZ81" s="59"/>
-      <c r="CA81" s="59"/>
-      <c r="CB81" s="59"/>
-      <c r="CC81" s="59"/>
-      <c r="CD81" s="59"/>
-      <c r="CE81" s="59"/>
-      <c r="CF81" s="59"/>
-      <c r="CG81" s="59"/>
-      <c r="CH81" s="59"/>
-      <c r="CI81" s="59"/>
+      <c r="BC81" s="2"/>
+      <c r="BD81" s="2"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="2"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+      <c r="BJ81" s="2"/>
+      <c r="BK81" s="2"/>
+      <c r="BL81" s="2"/>
+      <c r="BM81" s="2"/>
+      <c r="BN81" s="2"/>
+      <c r="BO81" s="2"/>
+      <c r="BP81" s="2"/>
+      <c r="BQ81" s="2"/>
+      <c r="BR81" s="2"/>
+      <c r="BS81" s="2"/>
+      <c r="BT81" s="2"/>
+      <c r="BU81" s="2"/>
+      <c r="BV81" s="2"/>
+      <c r="BW81" s="2"/>
+      <c r="BX81" s="2"/>
+      <c r="BY81" s="2"/>
+      <c r="BZ81" s="2"/>
+      <c r="CA81" s="2"/>
+      <c r="CB81" s="2"/>
+      <c r="CC81" s="2"/>
+      <c r="CD81" s="2"/>
+      <c r="CE81" s="2"/>
+      <c r="CF81" s="2"/>
+      <c r="CG81" s="2"/>
+      <c r="CH81" s="2"/>
+      <c r="CI81" s="2"/>
       <c r="CJ81" s="2"/>
       <c r="CK81" s="2"/>
     </row>
@@ -20995,46 +20988,46 @@
       <c r="AW82" s="21"/>
       <c r="AX82" s="21"/>
       <c r="AY82" s="12"/>
-      <c r="AZ82" s="63" t="s">
+      <c r="AZ82" s="61" t="s">
         <v>963</v>
       </c>
       <c r="BA82" s="12"/>
       <c r="BB82" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="BC82" s="59"/>
-      <c r="BD82" s="59"/>
-      <c r="BE82" s="59"/>
-      <c r="BF82" s="59"/>
-      <c r="BG82" s="59"/>
-      <c r="BH82" s="59"/>
-      <c r="BI82" s="59"/>
-      <c r="BJ82" s="59"/>
-      <c r="BK82" s="59"/>
-      <c r="BL82" s="59"/>
-      <c r="BM82" s="59"/>
-      <c r="BN82" s="59"/>
-      <c r="BO82" s="59"/>
-      <c r="BP82" s="59"/>
-      <c r="BQ82" s="59"/>
-      <c r="BR82" s="59"/>
-      <c r="BS82" s="59"/>
-      <c r="BT82" s="59"/>
-      <c r="BU82" s="59"/>
-      <c r="BV82" s="59"/>
-      <c r="BW82" s="59"/>
-      <c r="BX82" s="59"/>
-      <c r="BY82" s="59"/>
-      <c r="BZ82" s="59"/>
-      <c r="CA82" s="59"/>
-      <c r="CB82" s="59"/>
-      <c r="CC82" s="59"/>
-      <c r="CD82" s="59"/>
-      <c r="CE82" s="59"/>
-      <c r="CF82" s="59"/>
-      <c r="CG82" s="59"/>
-      <c r="CH82" s="59"/>
-      <c r="CI82" s="59"/>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="2"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BJ82" s="2"/>
+      <c r="BK82" s="2"/>
+      <c r="BL82" s="2"/>
+      <c r="BM82" s="2"/>
+      <c r="BN82" s="2"/>
+      <c r="BO82" s="2"/>
+      <c r="BP82" s="2"/>
+      <c r="BQ82" s="2"/>
+      <c r="BR82" s="2"/>
+      <c r="BS82" s="2"/>
+      <c r="BT82" s="2"/>
+      <c r="BU82" s="2"/>
+      <c r="BV82" s="2"/>
+      <c r="BW82" s="2"/>
+      <c r="BX82" s="2"/>
+      <c r="BY82" s="2"/>
+      <c r="BZ82" s="2"/>
+      <c r="CA82" s="2"/>
+      <c r="CB82" s="2"/>
+      <c r="CC82" s="2"/>
+      <c r="CD82" s="2"/>
+      <c r="CE82" s="2"/>
+      <c r="CF82" s="2"/>
+      <c r="CG82" s="2"/>
+      <c r="CH82" s="2"/>
+      <c r="CI82" s="2"/>
       <c r="CJ82" s="2"/>
       <c r="CK82" s="2"/>
     </row>
@@ -21118,45 +21111,45 @@
       <c r="AV83" s="4"/>
       <c r="AW83" s="4"/>
       <c r="AX83" s="4"/>
-      <c r="AZ83" s="64" t="s">
+      <c r="AZ83" s="62" t="s">
         <v>967</v>
       </c>
       <c r="BB83" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="BC83" s="59"/>
-      <c r="BD83" s="59"/>
-      <c r="BE83" s="59"/>
-      <c r="BF83" s="59"/>
-      <c r="BG83" s="59"/>
-      <c r="BH83" s="59"/>
-      <c r="BI83" s="59"/>
-      <c r="BJ83" s="59"/>
-      <c r="BK83" s="59"/>
-      <c r="BL83" s="59"/>
-      <c r="BM83" s="59"/>
-      <c r="BN83" s="59"/>
-      <c r="BO83" s="59"/>
-      <c r="BP83" s="59"/>
-      <c r="BQ83" s="59"/>
-      <c r="BR83" s="59"/>
-      <c r="BS83" s="59"/>
-      <c r="BT83" s="59"/>
-      <c r="BU83" s="59"/>
-      <c r="BV83" s="59"/>
-      <c r="BW83" s="59"/>
-      <c r="BX83" s="59"/>
-      <c r="BY83" s="59"/>
-      <c r="BZ83" s="59"/>
-      <c r="CA83" s="59"/>
-      <c r="CB83" s="59"/>
-      <c r="CC83" s="59"/>
-      <c r="CD83" s="59"/>
-      <c r="CE83" s="59"/>
-      <c r="CF83" s="59"/>
-      <c r="CG83" s="59"/>
-      <c r="CH83" s="59"/>
-      <c r="CI83" s="59"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="2"/>
+      <c r="BL83" s="2"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="2"/>
+      <c r="BO83" s="2"/>
+      <c r="BP83" s="2"/>
+      <c r="BQ83" s="2"/>
+      <c r="BR83" s="2"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="2"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="2"/>
+      <c r="BW83" s="2"/>
+      <c r="BX83" s="2"/>
+      <c r="BY83" s="2"/>
+      <c r="BZ83" s="2"/>
+      <c r="CA83" s="2"/>
+      <c r="CB83" s="2"/>
+      <c r="CC83" s="2"/>
+      <c r="CD83" s="2"/>
+      <c r="CE83" s="2"/>
+      <c r="CF83" s="2"/>
+      <c r="CG83" s="2"/>
+      <c r="CH83" s="2"/>
+      <c r="CI83" s="2"/>
       <c r="CJ83" s="2"/>
       <c r="CK83" s="2"/>
     </row>
@@ -21285,39 +21278,39 @@
       <c r="BB84" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="BC84" s="59"/>
-      <c r="BD84" s="59"/>
-      <c r="BE84" s="59"/>
-      <c r="BF84" s="59"/>
-      <c r="BG84" s="59"/>
-      <c r="BH84" s="59"/>
-      <c r="BI84" s="59"/>
-      <c r="BJ84" s="59"/>
-      <c r="BK84" s="59"/>
-      <c r="BL84" s="59"/>
-      <c r="BM84" s="59"/>
-      <c r="BN84" s="59"/>
-      <c r="BO84" s="59"/>
-      <c r="BP84" s="59"/>
-      <c r="BQ84" s="59"/>
-      <c r="BR84" s="59"/>
-      <c r="BS84" s="59"/>
-      <c r="BT84" s="59"/>
-      <c r="BU84" s="59"/>
-      <c r="BV84" s="59"/>
-      <c r="BW84" s="59"/>
-      <c r="BX84" s="59"/>
-      <c r="BY84" s="59"/>
-      <c r="BZ84" s="59"/>
-      <c r="CA84" s="59"/>
-      <c r="CB84" s="59"/>
-      <c r="CC84" s="59"/>
-      <c r="CD84" s="59"/>
-      <c r="CE84" s="59"/>
-      <c r="CF84" s="59"/>
-      <c r="CG84" s="59"/>
-      <c r="CH84" s="59"/>
-      <c r="CI84" s="59"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+      <c r="BJ84" s="2"/>
+      <c r="BK84" s="2"/>
+      <c r="BL84" s="2"/>
+      <c r="BM84" s="2"/>
+      <c r="BN84" s="2"/>
+      <c r="BO84" s="2"/>
+      <c r="BP84" s="2"/>
+      <c r="BQ84" s="2"/>
+      <c r="BR84" s="2"/>
+      <c r="BS84" s="2"/>
+      <c r="BT84" s="2"/>
+      <c r="BU84" s="2"/>
+      <c r="BV84" s="2"/>
+      <c r="BW84" s="2"/>
+      <c r="BX84" s="2"/>
+      <c r="BY84" s="2"/>
+      <c r="BZ84" s="2"/>
+      <c r="CA84" s="2"/>
+      <c r="CB84" s="2"/>
+      <c r="CC84" s="2"/>
+      <c r="CD84" s="2"/>
+      <c r="CE84" s="2"/>
+      <c r="CF84" s="2"/>
+      <c r="CG84" s="2"/>
+      <c r="CH84" s="2"/>
+      <c r="CI84" s="2"/>
       <c r="CJ84" s="2"/>
       <c r="CK84" s="2"/>
     </row>
@@ -21466,39 +21459,39 @@
       <c r="BB85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="BC85" s="61"/>
-      <c r="BD85" s="61"/>
-      <c r="BE85" s="61"/>
-      <c r="BF85" s="61"/>
-      <c r="BG85" s="61"/>
-      <c r="BH85" s="61"/>
-      <c r="BI85" s="61"/>
-      <c r="BJ85" s="61"/>
-      <c r="BK85" s="61"/>
-      <c r="BL85" s="61"/>
-      <c r="BM85" s="61"/>
-      <c r="BN85" s="61"/>
-      <c r="BO85" s="61"/>
-      <c r="BP85" s="61"/>
-      <c r="BQ85" s="61"/>
-      <c r="BR85" s="61"/>
-      <c r="BS85" s="61"/>
-      <c r="BT85" s="61"/>
-      <c r="BU85" s="61"/>
-      <c r="BV85" s="61"/>
-      <c r="BW85" s="61"/>
-      <c r="BX85" s="61"/>
-      <c r="BY85" s="61"/>
-      <c r="BZ85" s="61"/>
-      <c r="CA85" s="61"/>
-      <c r="CB85" s="61"/>
-      <c r="CC85" s="61"/>
-      <c r="CD85" s="61"/>
-      <c r="CE85" s="61"/>
-      <c r="CF85" s="61"/>
-      <c r="CG85" s="61"/>
-      <c r="CH85" s="61"/>
-      <c r="CI85" s="61"/>
+      <c r="BC85" s="59"/>
+      <c r="BD85" s="59"/>
+      <c r="BE85" s="59"/>
+      <c r="BF85" s="59"/>
+      <c r="BG85" s="59"/>
+      <c r="BH85" s="59"/>
+      <c r="BI85" s="59"/>
+      <c r="BJ85" s="59"/>
+      <c r="BK85" s="59"/>
+      <c r="BL85" s="59"/>
+      <c r="BM85" s="59"/>
+      <c r="BN85" s="59"/>
+      <c r="BO85" s="59"/>
+      <c r="BP85" s="59"/>
+      <c r="BQ85" s="59"/>
+      <c r="BR85" s="59"/>
+      <c r="BS85" s="59"/>
+      <c r="BT85" s="59"/>
+      <c r="BU85" s="59"/>
+      <c r="BV85" s="59"/>
+      <c r="BW85" s="59"/>
+      <c r="BX85" s="59"/>
+      <c r="BY85" s="59"/>
+      <c r="BZ85" s="59"/>
+      <c r="CA85" s="59"/>
+      <c r="CB85" s="59"/>
+      <c r="CC85" s="59"/>
+      <c r="CD85" s="59"/>
+      <c r="CE85" s="59"/>
+      <c r="CF85" s="59"/>
+      <c r="CG85" s="59"/>
+      <c r="CH85" s="59"/>
+      <c r="CI85" s="59"/>
     </row>
     <row r="86" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
@@ -21571,39 +21564,39 @@
       <c r="AZ86" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="BC86" s="59"/>
-      <c r="BD86" s="59"/>
-      <c r="BE86" s="59"/>
-      <c r="BF86" s="59"/>
-      <c r="BG86" s="59"/>
-      <c r="BH86" s="59"/>
-      <c r="BI86" s="59"/>
-      <c r="BJ86" s="59"/>
-      <c r="BK86" s="59"/>
-      <c r="BL86" s="59"/>
-      <c r="BM86" s="59"/>
-      <c r="BN86" s="59"/>
-      <c r="BO86" s="59"/>
-      <c r="BP86" s="59"/>
-      <c r="BQ86" s="59"/>
-      <c r="BR86" s="59"/>
-      <c r="BS86" s="59"/>
-      <c r="BT86" s="59"/>
-      <c r="BU86" s="59"/>
-      <c r="BV86" s="59"/>
-      <c r="BW86" s="59"/>
-      <c r="BX86" s="59"/>
-      <c r="BY86" s="59"/>
-      <c r="BZ86" s="59"/>
-      <c r="CA86" s="59"/>
-      <c r="CB86" s="59"/>
-      <c r="CC86" s="59"/>
-      <c r="CD86" s="59"/>
-      <c r="CE86" s="59"/>
-      <c r="CF86" s="59"/>
-      <c r="CG86" s="59"/>
-      <c r="CH86" s="59"/>
-      <c r="CI86" s="59"/>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="2"/>
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+      <c r="BJ86" s="2"/>
+      <c r="BK86" s="2"/>
+      <c r="BL86" s="2"/>
+      <c r="BM86" s="2"/>
+      <c r="BN86" s="2"/>
+      <c r="BO86" s="2"/>
+      <c r="BP86" s="2"/>
+      <c r="BQ86" s="2"/>
+      <c r="BR86" s="2"/>
+      <c r="BS86" s="2"/>
+      <c r="BT86" s="2"/>
+      <c r="BU86" s="2"/>
+      <c r="BV86" s="2"/>
+      <c r="BW86" s="2"/>
+      <c r="BX86" s="2"/>
+      <c r="BY86" s="2"/>
+      <c r="BZ86" s="2"/>
+      <c r="CA86" s="2"/>
+      <c r="CB86" s="2"/>
+      <c r="CC86" s="2"/>
+      <c r="CD86" s="2"/>
+      <c r="CE86" s="2"/>
+      <c r="CF86" s="2"/>
+      <c r="CG86" s="2"/>
+      <c r="CH86" s="2"/>
+      <c r="CI86" s="2"/>
     </row>
     <row r="87" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
@@ -21719,44 +21712,44 @@
       <c r="AW87" s="21"/>
       <c r="AX87" s="21"/>
       <c r="AY87" s="12"/>
-      <c r="AZ87" s="62" t="s">
+      <c r="AZ87" s="60" t="s">
         <v>984</v>
       </c>
       <c r="BA87" s="12"/>
       <c r="BB87" s="12"/>
-      <c r="BC87" s="59"/>
-      <c r="BD87" s="59"/>
-      <c r="BE87" s="59"/>
-      <c r="BF87" s="59"/>
-      <c r="BG87" s="59"/>
-      <c r="BH87" s="59"/>
-      <c r="BI87" s="59"/>
-      <c r="BJ87" s="59"/>
-      <c r="BK87" s="59"/>
-      <c r="BL87" s="59"/>
-      <c r="BM87" s="59"/>
-      <c r="BN87" s="59"/>
-      <c r="BO87" s="59"/>
-      <c r="BP87" s="59"/>
-      <c r="BQ87" s="59"/>
-      <c r="BR87" s="59"/>
-      <c r="BS87" s="59"/>
-      <c r="BT87" s="59"/>
-      <c r="BU87" s="59"/>
-      <c r="BV87" s="59"/>
-      <c r="BW87" s="59"/>
-      <c r="BX87" s="59"/>
-      <c r="BY87" s="59"/>
-      <c r="BZ87" s="59"/>
-      <c r="CA87" s="59"/>
-      <c r="CB87" s="59"/>
-      <c r="CC87" s="59"/>
-      <c r="CD87" s="59"/>
-      <c r="CE87" s="59"/>
-      <c r="CF87" s="59"/>
-      <c r="CG87" s="59"/>
-      <c r="CH87" s="59"/>
-      <c r="CI87" s="59"/>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="2"/>
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+      <c r="BJ87" s="2"/>
+      <c r="BK87" s="2"/>
+      <c r="BL87" s="2"/>
+      <c r="BM87" s="2"/>
+      <c r="BN87" s="2"/>
+      <c r="BO87" s="2"/>
+      <c r="BP87" s="2"/>
+      <c r="BQ87" s="2"/>
+      <c r="BR87" s="2"/>
+      <c r="BS87" s="2"/>
+      <c r="BT87" s="2"/>
+      <c r="BU87" s="2"/>
+      <c r="BV87" s="2"/>
+      <c r="BW87" s="2"/>
+      <c r="BX87" s="2"/>
+      <c r="BY87" s="2"/>
+      <c r="BZ87" s="2"/>
+      <c r="CA87" s="2"/>
+      <c r="CB87" s="2"/>
+      <c r="CC87" s="2"/>
+      <c r="CD87" s="2"/>
+      <c r="CE87" s="2"/>
+      <c r="CF87" s="2"/>
+      <c r="CG87" s="2"/>
+      <c r="CH87" s="2"/>
+      <c r="CI87" s="2"/>
     </row>
     <row r="88" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
@@ -21890,39 +21883,39 @@
       </c>
       <c r="BA88" s="13"/>
       <c r="BB88" s="13"/>
-      <c r="BC88" s="59"/>
-      <c r="BD88" s="59"/>
-      <c r="BE88" s="59"/>
-      <c r="BF88" s="59"/>
-      <c r="BG88" s="59"/>
-      <c r="BH88" s="59"/>
-      <c r="BI88" s="59"/>
-      <c r="BJ88" s="59"/>
-      <c r="BK88" s="59"/>
-      <c r="BL88" s="59"/>
-      <c r="BM88" s="59"/>
-      <c r="BN88" s="59"/>
-      <c r="BO88" s="59"/>
-      <c r="BP88" s="59"/>
-      <c r="BQ88" s="59"/>
-      <c r="BR88" s="59"/>
-      <c r="BS88" s="59"/>
-      <c r="BT88" s="59"/>
-      <c r="BU88" s="59"/>
-      <c r="BV88" s="59"/>
-      <c r="BW88" s="59"/>
-      <c r="BX88" s="59"/>
-      <c r="BY88" s="59"/>
-      <c r="BZ88" s="59"/>
-      <c r="CA88" s="59"/>
-      <c r="CB88" s="59"/>
-      <c r="CC88" s="59"/>
-      <c r="CD88" s="59"/>
-      <c r="CE88" s="59"/>
-      <c r="CF88" s="59"/>
-      <c r="CG88" s="59"/>
-      <c r="CH88" s="59"/>
-      <c r="CI88" s="59"/>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="2"/>
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+      <c r="BJ88" s="2"/>
+      <c r="BK88" s="2"/>
+      <c r="BL88" s="2"/>
+      <c r="BM88" s="2"/>
+      <c r="BN88" s="2"/>
+      <c r="BO88" s="2"/>
+      <c r="BP88" s="2"/>
+      <c r="BQ88" s="2"/>
+      <c r="BR88" s="2"/>
+      <c r="BS88" s="2"/>
+      <c r="BT88" s="2"/>
+      <c r="BU88" s="2"/>
+      <c r="BV88" s="2"/>
+      <c r="BW88" s="2"/>
+      <c r="BX88" s="2"/>
+      <c r="BY88" s="2"/>
+      <c r="BZ88" s="2"/>
+      <c r="CA88" s="2"/>
+      <c r="CB88" s="2"/>
+      <c r="CC88" s="2"/>
+      <c r="CD88" s="2"/>
+      <c r="CE88" s="2"/>
+      <c r="CF88" s="2"/>
+      <c r="CG88" s="2"/>
+      <c r="CH88" s="2"/>
+      <c r="CI88" s="2"/>
     </row>
     <row r="89" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
@@ -22019,39 +22012,39 @@
       <c r="BB89" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="BC89" s="59"/>
-      <c r="BD89" s="59"/>
-      <c r="BE89" s="59"/>
-      <c r="BF89" s="59"/>
-      <c r="BG89" s="59"/>
-      <c r="BH89" s="59"/>
-      <c r="BI89" s="59"/>
-      <c r="BJ89" s="59"/>
-      <c r="BK89" s="59"/>
-      <c r="BL89" s="59"/>
-      <c r="BM89" s="59"/>
-      <c r="BN89" s="59"/>
-      <c r="BO89" s="59"/>
-      <c r="BP89" s="59"/>
-      <c r="BQ89" s="59"/>
-      <c r="BR89" s="59"/>
-      <c r="BS89" s="59"/>
-      <c r="BT89" s="59"/>
-      <c r="BU89" s="59"/>
-      <c r="BV89" s="59"/>
-      <c r="BW89" s="59"/>
-      <c r="BX89" s="59"/>
-      <c r="BY89" s="59"/>
-      <c r="BZ89" s="59"/>
-      <c r="CA89" s="59"/>
-      <c r="CB89" s="59"/>
-      <c r="CC89" s="59"/>
-      <c r="CD89" s="59"/>
-      <c r="CE89" s="59"/>
-      <c r="CF89" s="59"/>
-      <c r="CG89" s="59"/>
-      <c r="CH89" s="59"/>
-      <c r="CI89" s="59"/>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="2"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+      <c r="BJ89" s="2"/>
+      <c r="BK89" s="2"/>
+      <c r="BL89" s="2"/>
+      <c r="BM89" s="2"/>
+      <c r="BN89" s="2"/>
+      <c r="BO89" s="2"/>
+      <c r="BP89" s="2"/>
+      <c r="BQ89" s="2"/>
+      <c r="BR89" s="2"/>
+      <c r="BS89" s="2"/>
+      <c r="BT89" s="2"/>
+      <c r="BU89" s="2"/>
+      <c r="BV89" s="2"/>
+      <c r="BW89" s="2"/>
+      <c r="BX89" s="2"/>
+      <c r="BY89" s="2"/>
+      <c r="BZ89" s="2"/>
+      <c r="CA89" s="2"/>
+      <c r="CB89" s="2"/>
+      <c r="CC89" s="2"/>
+      <c r="CD89" s="2"/>
+      <c r="CE89" s="2"/>
+      <c r="CF89" s="2"/>
+      <c r="CG89" s="2"/>
+      <c r="CH89" s="2"/>
+      <c r="CI89" s="2"/>
     </row>
     <row r="90" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
@@ -22174,39 +22167,39 @@
       <c r="AZ90" s="6"/>
       <c r="BA90" s="6"/>
       <c r="BB90" s="6"/>
-      <c r="BC90" s="59"/>
-      <c r="BD90" s="59"/>
-      <c r="BE90" s="59"/>
-      <c r="BF90" s="59"/>
-      <c r="BG90" s="59"/>
-      <c r="BH90" s="59"/>
-      <c r="BI90" s="59"/>
-      <c r="BJ90" s="59"/>
-      <c r="BK90" s="59"/>
-      <c r="BL90" s="59"/>
-      <c r="BM90" s="59"/>
-      <c r="BN90" s="59"/>
-      <c r="BO90" s="59"/>
-      <c r="BP90" s="59"/>
-      <c r="BQ90" s="59"/>
-      <c r="BR90" s="59"/>
-      <c r="BS90" s="59"/>
-      <c r="BT90" s="59"/>
-      <c r="BU90" s="59"/>
-      <c r="BV90" s="59"/>
-      <c r="BW90" s="59"/>
-      <c r="BX90" s="59"/>
-      <c r="BY90" s="59"/>
-      <c r="BZ90" s="59"/>
-      <c r="CA90" s="59"/>
-      <c r="CB90" s="59"/>
-      <c r="CC90" s="59"/>
-      <c r="CD90" s="59"/>
-      <c r="CE90" s="59"/>
-      <c r="CF90" s="59"/>
-      <c r="CG90" s="59"/>
-      <c r="CH90" s="59"/>
-      <c r="CI90" s="59"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="2"/>
+      <c r="BK90" s="2"/>
+      <c r="BL90" s="2"/>
+      <c r="BM90" s="2"/>
+      <c r="BN90" s="2"/>
+      <c r="BO90" s="2"/>
+      <c r="BP90" s="2"/>
+      <c r="BQ90" s="2"/>
+      <c r="BR90" s="2"/>
+      <c r="BS90" s="2"/>
+      <c r="BT90" s="2"/>
+      <c r="BU90" s="2"/>
+      <c r="BV90" s="2"/>
+      <c r="BW90" s="2"/>
+      <c r="BX90" s="2"/>
+      <c r="BY90" s="2"/>
+      <c r="BZ90" s="2"/>
+      <c r="CA90" s="2"/>
+      <c r="CB90" s="2"/>
+      <c r="CC90" s="2"/>
+      <c r="CD90" s="2"/>
+      <c r="CE90" s="2"/>
+      <c r="CF90" s="2"/>
+      <c r="CG90" s="2"/>
+      <c r="CH90" s="2"/>
+      <c r="CI90" s="2"/>
     </row>
     <row r="91" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
@@ -22295,39 +22288,39 @@
       <c r="AZ91" s="12"/>
       <c r="BA91" s="12"/>
       <c r="BB91" s="12"/>
-      <c r="BC91" s="59"/>
-      <c r="BD91" s="59"/>
-      <c r="BE91" s="59"/>
-      <c r="BF91" s="59"/>
-      <c r="BG91" s="59"/>
-      <c r="BH91" s="59"/>
-      <c r="BI91" s="59"/>
-      <c r="BJ91" s="59"/>
-      <c r="BK91" s="59"/>
-      <c r="BL91" s="59"/>
-      <c r="BM91" s="59"/>
-      <c r="BN91" s="59"/>
-      <c r="BO91" s="59"/>
-      <c r="BP91" s="59"/>
-      <c r="BQ91" s="59"/>
-      <c r="BR91" s="59"/>
-      <c r="BS91" s="59"/>
-      <c r="BT91" s="59"/>
-      <c r="BU91" s="59"/>
-      <c r="BV91" s="59"/>
-      <c r="BW91" s="59"/>
-      <c r="BX91" s="59"/>
-      <c r="BY91" s="59"/>
-      <c r="BZ91" s="59"/>
-      <c r="CA91" s="59"/>
-      <c r="CB91" s="59"/>
-      <c r="CC91" s="59"/>
-      <c r="CD91" s="59"/>
-      <c r="CE91" s="59"/>
-      <c r="CF91" s="59"/>
-      <c r="CG91" s="59"/>
-      <c r="CH91" s="59"/>
-      <c r="CI91" s="59"/>
+      <c r="BC91" s="2"/>
+      <c r="BD91" s="2"/>
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+      <c r="BJ91" s="2"/>
+      <c r="BK91" s="2"/>
+      <c r="BL91" s="2"/>
+      <c r="BM91" s="2"/>
+      <c r="BN91" s="2"/>
+      <c r="BO91" s="2"/>
+      <c r="BP91" s="2"/>
+      <c r="BQ91" s="2"/>
+      <c r="BR91" s="2"/>
+      <c r="BS91" s="2"/>
+      <c r="BT91" s="2"/>
+      <c r="BU91" s="2"/>
+      <c r="BV91" s="2"/>
+      <c r="BW91" s="2"/>
+      <c r="BX91" s="2"/>
+      <c r="BY91" s="2"/>
+      <c r="BZ91" s="2"/>
+      <c r="CA91" s="2"/>
+      <c r="CB91" s="2"/>
+      <c r="CC91" s="2"/>
+      <c r="CD91" s="2"/>
+      <c r="CE91" s="2"/>
+      <c r="CF91" s="2"/>
+      <c r="CG91" s="2"/>
+      <c r="CH91" s="2"/>
+      <c r="CI91" s="2"/>
     </row>
     <row r="92" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
@@ -22436,39 +22429,39 @@
       <c r="AV92" s="13"/>
       <c r="AW92" s="13"/>
       <c r="AX92" s="13"/>
-      <c r="BC92" s="59"/>
-      <c r="BD92" s="59"/>
-      <c r="BE92" s="59"/>
-      <c r="BF92" s="59"/>
-      <c r="BG92" s="59"/>
-      <c r="BH92" s="59"/>
-      <c r="BI92" s="59"/>
-      <c r="BJ92" s="59"/>
-      <c r="BK92" s="59"/>
-      <c r="BL92" s="59"/>
-      <c r="BM92" s="59"/>
-      <c r="BN92" s="59"/>
-      <c r="BO92" s="59"/>
-      <c r="BP92" s="59"/>
-      <c r="BQ92" s="59"/>
-      <c r="BR92" s="59"/>
-      <c r="BS92" s="59"/>
-      <c r="BT92" s="59"/>
-      <c r="BU92" s="59"/>
-      <c r="BV92" s="59"/>
-      <c r="BW92" s="59"/>
-      <c r="BX92" s="59"/>
-      <c r="BY92" s="59"/>
-      <c r="BZ92" s="59"/>
-      <c r="CA92" s="59"/>
-      <c r="CB92" s="59"/>
-      <c r="CC92" s="59"/>
-      <c r="CD92" s="59"/>
-      <c r="CE92" s="59"/>
-      <c r="CF92" s="59"/>
-      <c r="CG92" s="59"/>
-      <c r="CH92" s="59"/>
-      <c r="CI92" s="59"/>
+      <c r="BC92" s="2"/>
+      <c r="BD92" s="2"/>
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+      <c r="BJ92" s="2"/>
+      <c r="BK92" s="2"/>
+      <c r="BL92" s="2"/>
+      <c r="BM92" s="2"/>
+      <c r="BN92" s="2"/>
+      <c r="BO92" s="2"/>
+      <c r="BP92" s="2"/>
+      <c r="BQ92" s="2"/>
+      <c r="BR92" s="2"/>
+      <c r="BS92" s="2"/>
+      <c r="BT92" s="2"/>
+      <c r="BU92" s="2"/>
+      <c r="BV92" s="2"/>
+      <c r="BW92" s="2"/>
+      <c r="BX92" s="2"/>
+      <c r="BY92" s="2"/>
+      <c r="BZ92" s="2"/>
+      <c r="CA92" s="2"/>
+      <c r="CB92" s="2"/>
+      <c r="CC92" s="2"/>
+      <c r="CD92" s="2"/>
+      <c r="CE92" s="2"/>
+      <c r="CF92" s="2"/>
+      <c r="CG92" s="2"/>
+      <c r="CH92" s="2"/>
+      <c r="CI92" s="2"/>
     </row>
     <row r="93" spans="1:89" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
@@ -22526,42 +22519,42 @@
       <c r="AV93" s="22"/>
       <c r="AW93" s="22"/>
       <c r="AX93" s="22"/>
-      <c r="BC93" s="59"/>
-      <c r="BD93" s="59"/>
-      <c r="BE93" s="59"/>
-      <c r="BF93" s="59"/>
-      <c r="BG93" s="59"/>
-      <c r="BH93" s="59"/>
-      <c r="BI93" s="59"/>
-      <c r="BJ93" s="59"/>
-      <c r="BK93" s="59"/>
-      <c r="BL93" s="59"/>
-      <c r="BM93" s="59"/>
-      <c r="BN93" s="59"/>
-      <c r="BO93" s="59"/>
-      <c r="BP93" s="59"/>
-      <c r="BQ93" s="59"/>
-      <c r="BR93" s="59"/>
-      <c r="BS93" s="59"/>
-      <c r="BT93" s="59"/>
-      <c r="BU93" s="59"/>
-      <c r="BV93" s="59"/>
-      <c r="BW93" s="59"/>
-      <c r="BX93" s="59"/>
-      <c r="BY93" s="59"/>
-      <c r="BZ93" s="59"/>
-      <c r="CA93" s="59"/>
-      <c r="CB93" s="59"/>
-      <c r="CC93" s="59"/>
-      <c r="CD93" s="59"/>
-      <c r="CE93" s="59"/>
-      <c r="CF93" s="59"/>
-      <c r="CG93" s="59"/>
-      <c r="CH93" s="59"/>
-      <c r="CI93" s="59"/>
+      <c r="BC93" s="2"/>
+      <c r="BD93" s="2"/>
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+      <c r="BJ93" s="2"/>
+      <c r="BK93" s="2"/>
+      <c r="BL93" s="2"/>
+      <c r="BM93" s="2"/>
+      <c r="BN93" s="2"/>
+      <c r="BO93" s="2"/>
+      <c r="BP93" s="2"/>
+      <c r="BQ93" s="2"/>
+      <c r="BR93" s="2"/>
+      <c r="BS93" s="2"/>
+      <c r="BT93" s="2"/>
+      <c r="BU93" s="2"/>
+      <c r="BV93" s="2"/>
+      <c r="BW93" s="2"/>
+      <c r="BX93" s="2"/>
+      <c r="BY93" s="2"/>
+      <c r="BZ93" s="2"/>
+      <c r="CA93" s="2"/>
+      <c r="CB93" s="2"/>
+      <c r="CC93" s="2"/>
+      <c r="CD93" s="2"/>
+      <c r="CE93" s="2"/>
+      <c r="CF93" s="2"/>
+      <c r="CG93" s="2"/>
+      <c r="CH93" s="2"/>
+      <c r="CI93" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:BB93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB93">
     <sortCondition descending="1" ref="D2:D93"/>
   </sortState>
   <hyperlinks>

--- a/Literature_overview_all_Stand08_07_2024.xlsx
+++ b/Literature_overview_all_Stand08_07_2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF87299-A6AE-4B1C-987C-FBDDBE443F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51B651-31C2-49ED-A206-0A2F2319D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -8042,10 +8042,10 @@
   <dimension ref="A1:CK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature_overview_all_Stand08_07_2024.xlsx
+++ b/Literature_overview_all_Stand08_07_2024.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51B651-31C2-49ED-A206-0A2F2319D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6A3EDC-F807-4521-935B-904856CB92CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8042,7 +8042,7 @@
   <dimension ref="A1:CK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R72" sqref="R72"/>
@@ -22554,7 +22554,7 @@
       <c r="CI93" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB93">
+  <sortState ref="A2:BB93">
     <sortCondition descending="1" ref="D2:D93"/>
   </sortState>
   <hyperlinks>

--- a/Literature_overview_all_Stand08_07_2024.xlsx
+++ b/Literature_overview_all_Stand08_07_2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51B651-31C2-49ED-A206-0A2F2319D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D8D41-4F3C-45D5-80E7-C5E4807D8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -8042,53 +8042,53 @@
   <dimension ref="A1:CK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R72" sqref="R72"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="2" customWidth="1"/>
     <col min="7" max="8" width="24" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="15" style="44" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="18.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="50.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="57.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="17" customWidth="1"/>
-    <col min="26" max="33" width="9.140625" style="17" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="28" customWidth="1"/>
-    <col min="35" max="36" width="9.140625" style="17" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="28" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="17" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="28" customWidth="1"/>
-    <col min="41" max="42" width="9.140625" style="17" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" style="28" customWidth="1"/>
-    <col min="44" max="50" width="9.140625" style="17" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="2"/>
-    <col min="52" max="52" width="125.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="18.7109375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="20.42578125" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="21.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="18.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="42.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="50.44140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="57.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="17" customWidth="1"/>
+    <col min="26" max="33" width="9.109375" style="17" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" style="28" customWidth="1"/>
+    <col min="35" max="36" width="9.109375" style="17" customWidth="1"/>
+    <col min="37" max="37" width="9.109375" style="28" customWidth="1"/>
+    <col min="38" max="39" width="9.109375" style="17" customWidth="1"/>
+    <col min="40" max="40" width="9.109375" style="28" customWidth="1"/>
+    <col min="41" max="42" width="9.109375" style="17" customWidth="1"/>
+    <col min="43" max="43" width="9.109375" style="28" customWidth="1"/>
+    <col min="44" max="50" width="9.109375" style="17" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" style="2"/>
+    <col min="52" max="52" width="125.6640625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="18.6640625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="20.44140625" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>866</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="3" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" s="3" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>872</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="CJ2" s="2"/>
       <c r="CK2" s="2"/>
     </row>
-    <row r="3" spans="1:89" s="4" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="4" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>880</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="CJ3" s="2"/>
       <c r="CK3" s="2"/>
     </row>
-    <row r="4" spans="1:89" s="6" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="6" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>905</v>
       </c>
@@ -8813,7 +8813,7 @@
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
     </row>
-    <row r="5" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>944</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
     </row>
-    <row r="6" spans="1:89" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>897</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="CJ6" s="2"/>
       <c r="CK6" s="2"/>
     </row>
-    <row r="7" spans="1:89" s="6" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>937</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="CJ7" s="2"/>
       <c r="CK7" s="2"/>
     </row>
-    <row r="8" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>893</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="CJ8" s="2"/>
       <c r="CK8" s="2"/>
     </row>
-    <row r="9" spans="1:89" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>893</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
     </row>
-    <row r="10" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>898</v>
       </c>
@@ -9718,7 +9718,7 @@
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
     </row>
-    <row r="11" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>881</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
     </row>
-    <row r="12" spans="1:89" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>938</v>
       </c>
@@ -10030,7 +10030,7 @@
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
     </row>
-    <row r="13" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>916</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
     </row>
-    <row r="14" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>1240</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
     </row>
-    <row r="15" spans="1:89" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>873</v>
       </c>
@@ -10506,7 +10506,7 @@
       <c r="CJ15" s="17"/>
       <c r="CK15" s="17"/>
     </row>
-    <row r="16" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>1175</v>
       </c>
@@ -10634,7 +10634,7 @@
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
     </row>
-    <row r="17" spans="1:89" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>919</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
     </row>
-    <row r="18" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>915</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
     </row>
-    <row r="19" spans="1:89" s="3" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" s="3" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>929</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
     </row>
-    <row r="20" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>883</v>
       </c>
@@ -11318,7 +11318,7 @@
       <c r="CJ20" s="2"/>
       <c r="CK20" s="2"/>
     </row>
-    <row r="21" spans="1:89" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>942</v>
       </c>
@@ -11453,7 +11453,7 @@
       <c r="CJ21" s="2"/>
       <c r="CK21" s="2"/>
     </row>
-    <row r="22" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>930</v>
       </c>
@@ -11597,7 +11597,7 @@
       <c r="CJ22" s="17"/>
       <c r="CK22" s="17"/>
     </row>
-    <row r="23" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>914</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="CJ23" s="2"/>
       <c r="CK23" s="2"/>
     </row>
-    <row r="24" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>903</v>
       </c>
@@ -11919,7 +11919,7 @@
       <c r="CJ24" s="2"/>
       <c r="CK24" s="2"/>
     </row>
-    <row r="25" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>888</v>
       </c>
@@ -12096,7 +12096,7 @@
       <c r="CJ25" s="2"/>
       <c r="CK25" s="2"/>
     </row>
-    <row r="26" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>874</v>
       </c>
@@ -12259,7 +12259,7 @@
       <c r="CJ26" s="2"/>
       <c r="CK26" s="2"/>
     </row>
-    <row r="27" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>884</v>
       </c>
@@ -12436,7 +12436,7 @@
       <c r="CJ27" s="2"/>
       <c r="CK27" s="2"/>
     </row>
-    <row r="28" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>899</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="CJ28" s="2"/>
       <c r="CK28" s="2"/>
     </row>
-    <row r="29" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>1184</v>
       </c>
@@ -12740,7 +12740,7 @@
       <c r="CJ29" s="2"/>
       <c r="CK29" s="2"/>
     </row>
-    <row r="30" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>943</v>
       </c>
@@ -12877,7 +12877,7 @@
       <c r="CJ30" s="2"/>
       <c r="CK30" s="2"/>
     </row>
-    <row r="31" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>909</v>
       </c>
@@ -13054,7 +13054,7 @@
       <c r="CJ31" s="2"/>
       <c r="CK31" s="2"/>
     </row>
-    <row r="32" spans="1:89" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>867</v>
       </c>
@@ -13219,7 +13219,7 @@
       <c r="CJ32" s="2"/>
       <c r="CK32" s="2"/>
     </row>
-    <row r="33" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>1194</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="CJ33" s="2"/>
       <c r="CK33" s="2"/>
     </row>
-    <row r="34" spans="1:89" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>875</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="CJ34" s="2"/>
       <c r="CK34" s="2"/>
     </row>
-    <row r="35" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>906</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="CJ35" s="2"/>
       <c r="CK35" s="2"/>
     </row>
-    <row r="36" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>939</v>
       </c>
@@ -13885,7 +13885,7 @@
       <c r="CJ36" s="2"/>
       <c r="CK36" s="2"/>
     </row>
-    <row r="37" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>889</v>
       </c>
@@ -14072,7 +14072,7 @@
       <c r="CJ37" s="2"/>
       <c r="CK37" s="2"/>
     </row>
-    <row r="38" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>868</v>
       </c>
@@ -14227,7 +14227,7 @@
       <c r="CJ38" s="2"/>
       <c r="CK38" s="2"/>
     </row>
-    <row r="39" spans="1:89" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>890</v>
       </c>
@@ -14414,7 +14414,7 @@
       <c r="CJ39" s="2"/>
       <c r="CK39" s="2"/>
     </row>
-    <row r="40" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>913</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="CJ40" s="2"/>
       <c r="CK40" s="2"/>
     </row>
-    <row r="41" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>1212</v>
       </c>
@@ -14722,7 +14722,7 @@
       <c r="CJ41" s="2"/>
       <c r="CK41" s="2"/>
     </row>
-    <row r="42" spans="1:89" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>869</v>
       </c>
@@ -14885,7 +14885,7 @@
       <c r="CJ42" s="2"/>
       <c r="CK42" s="2"/>
     </row>
-    <row r="43" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>885</v>
       </c>
@@ -15052,7 +15052,7 @@
       <c r="CJ43" s="2"/>
       <c r="CK43" s="2"/>
     </row>
-    <row r="44" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>921</v>
       </c>
@@ -15223,7 +15223,7 @@
       <c r="CJ44" s="2"/>
       <c r="CK44" s="2"/>
     </row>
-    <row r="45" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>934</v>
       </c>
@@ -15353,7 +15353,7 @@
       <c r="CJ45" s="2"/>
       <c r="CK45" s="2"/>
     </row>
-    <row r="46" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>924</v>
       </c>
@@ -15494,7 +15494,7 @@
       <c r="CJ46" s="2"/>
       <c r="CK46" s="2"/>
     </row>
-    <row r="47" spans="1:89" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" s="12" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>877</v>
       </c>
@@ -15651,7 +15651,7 @@
       <c r="CJ47" s="2"/>
       <c r="CK47" s="2"/>
     </row>
-    <row r="48" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>910</v>
       </c>
@@ -15828,7 +15828,7 @@
       <c r="CJ48" s="2"/>
       <c r="CK48" s="2"/>
     </row>
-    <row r="49" spans="1:89" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" s="12" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>935</v>
       </c>
@@ -15971,7 +15971,7 @@
       <c r="CJ49" s="2"/>
       <c r="CK49" s="2"/>
     </row>
-    <row r="50" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>917</v>
       </c>
@@ -16146,7 +16146,7 @@
       <c r="CJ50" s="2"/>
       <c r="CK50" s="2"/>
     </row>
-    <row r="51" spans="1:89" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>891</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="CJ51" s="2"/>
       <c r="CK51" s="2"/>
     </row>
-    <row r="52" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>911</v>
       </c>
@@ -16476,7 +16476,7 @@
       <c r="CJ52" s="2"/>
       <c r="CK52" s="2"/>
     </row>
-    <row r="53" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>918</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="CJ53" s="2"/>
       <c r="CK53" s="2"/>
     </row>
-    <row r="54" spans="1:89" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>1221</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="CJ54" s="17"/>
       <c r="CK54" s="17"/>
     </row>
-    <row r="55" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>946</v>
       </c>
@@ -16919,7 +16919,7 @@
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
     </row>
-    <row r="56" spans="1:89" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>870</v>
       </c>
@@ -17071,7 +17071,7 @@
       <c r="CJ56" s="2"/>
       <c r="CK56" s="2"/>
     </row>
-    <row r="57" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>927</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="CJ57" s="2"/>
       <c r="CK57" s="2"/>
     </row>
-    <row r="58" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>894</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="CJ58" s="17"/>
       <c r="CK58" s="17"/>
     </row>
-    <row r="59" spans="1:89" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>945</v>
       </c>
@@ -17576,7 +17576,7 @@
       <c r="CJ59" s="2"/>
       <c r="CK59" s="2"/>
     </row>
-    <row r="60" spans="1:89" s="13" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" s="13" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
         <v>900</v>
       </c>
@@ -17749,7 +17749,7 @@
       <c r="CJ60" s="2"/>
       <c r="CK60" s="2"/>
     </row>
-    <row r="61" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>871</v>
       </c>
@@ -17908,7 +17908,7 @@
       <c r="CJ61" s="2"/>
       <c r="CK61" s="2"/>
     </row>
-    <row r="62" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
         <v>940</v>
       </c>
@@ -18049,7 +18049,7 @@
       <c r="CJ62" s="2"/>
       <c r="CK62" s="2"/>
     </row>
-    <row r="63" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>1203</v>
       </c>
@@ -18175,7 +18175,7 @@
       <c r="CJ63" s="2"/>
       <c r="CK63" s="2"/>
     </row>
-    <row r="64" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>1164</v>
       </c>
@@ -18312,7 +18312,7 @@
       <c r="CH64" s="2"/>
       <c r="CI64" s="2"/>
     </row>
-    <row r="65" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>878</v>
       </c>
@@ -18478,7 +18478,7 @@
       <c r="CJ65" s="2"/>
       <c r="CK65" s="2"/>
     </row>
-    <row r="66" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
         <v>886</v>
       </c>
@@ -18641,7 +18641,7 @@
       <c r="CJ66" s="2"/>
       <c r="CK66" s="2"/>
     </row>
-    <row r="67" spans="1:89" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>912</v>
       </c>
@@ -18800,7 +18800,7 @@
       <c r="CJ67" s="2"/>
       <c r="CK67" s="2"/>
     </row>
-    <row r="68" spans="1:89" s="13" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:89" s="13" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>932</v>
       </c>
@@ -18922,7 +18922,7 @@
       <c r="CJ68" s="2"/>
       <c r="CK68" s="2"/>
     </row>
-    <row r="69" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>947</v>
       </c>
@@ -19073,7 +19073,7 @@
       <c r="CJ69" s="2"/>
       <c r="CK69" s="2"/>
     </row>
-    <row r="70" spans="1:89" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:89" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
         <v>933</v>
       </c>
@@ -19211,7 +19211,7 @@
       <c r="CJ70" s="17"/>
       <c r="CK70" s="17"/>
     </row>
-    <row r="71" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>895</v>
       </c>
@@ -19396,7 +19396,7 @@
       <c r="CJ71" s="2"/>
       <c r="CK71" s="2"/>
     </row>
-    <row r="72" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:89" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>896</v>
       </c>
@@ -19553,7 +19553,7 @@
       <c r="CJ72" s="2"/>
       <c r="CK72" s="2"/>
     </row>
-    <row r="73" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
         <v>901</v>
       </c>
@@ -19708,7 +19708,7 @@
       <c r="CJ73" s="2"/>
       <c r="CK73" s="2"/>
     </row>
-    <row r="74" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>923</v>
       </c>
@@ -19855,7 +19855,7 @@
       <c r="CJ74" s="2"/>
       <c r="CK74" s="2"/>
     </row>
-    <row r="75" spans="1:89" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
         <v>925</v>
       </c>
@@ -19982,7 +19982,7 @@
       <c r="CJ75" s="2"/>
       <c r="CK75" s="2"/>
     </row>
-    <row r="76" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
         <v>920</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="77" spans="1:89" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:89" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>928</v>
       </c>
@@ -20231,7 +20231,7 @@
       <c r="CJ77" s="2"/>
       <c r="CK77" s="2"/>
     </row>
-    <row r="78" spans="1:89" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>922</v>
       </c>
@@ -20382,7 +20382,7 @@
       <c r="CJ78" s="2"/>
       <c r="CK78" s="2"/>
     </row>
-    <row r="79" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:89" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>887</v>
       </c>
@@ -20547,7 +20547,7 @@
       <c r="CJ79" s="2"/>
       <c r="CK79" s="2"/>
     </row>
-    <row r="80" spans="1:89" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
         <v>882</v>
       </c>
@@ -20717,7 +20717,7 @@
       <c r="CJ80" s="2"/>
       <c r="CK80" s="2"/>
     </row>
-    <row r="81" spans="1:89" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:89" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
         <v>902</v>
       </c>
@@ -20862,7 +20862,7 @@
       <c r="CJ81" s="2"/>
       <c r="CK81" s="2"/>
     </row>
-    <row r="82" spans="1:89" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:89" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>892</v>
       </c>
@@ -21031,7 +21031,7 @@
       <c r="CJ82" s="2"/>
       <c r="CK82" s="2"/>
     </row>
-    <row r="83" spans="1:89" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>941</v>
       </c>
@@ -21153,7 +21153,7 @@
       <c r="CJ83" s="2"/>
       <c r="CK83" s="2"/>
     </row>
-    <row r="84" spans="1:89" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="30" t="s">
         <v>904</v>
       </c>
@@ -21314,7 +21314,7 @@
       <c r="CJ84" s="2"/>
       <c r="CK84" s="2"/>
     </row>
-    <row r="85" spans="1:89" s="48" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:89" s="48" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A85" s="30" t="s">
         <v>876</v>
       </c>
@@ -21493,7 +21493,7 @@
       <c r="CH85" s="59"/>
       <c r="CI85" s="59"/>
     </row>
-    <row r="86" spans="1:89" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:89" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
         <v>1230</v>
       </c>
@@ -21598,7 +21598,7 @@
       <c r="CH86" s="2"/>
       <c r="CI86" s="2"/>
     </row>
-    <row r="87" spans="1:89" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:89" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>907</v>
       </c>
@@ -21751,7 +21751,7 @@
       <c r="CH87" s="2"/>
       <c r="CI87" s="2"/>
     </row>
-    <row r="88" spans="1:89" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A88" s="30" t="s">
         <v>931</v>
       </c>
@@ -21917,7 +21917,7 @@
       <c r="CH88" s="2"/>
       <c r="CI88" s="2"/>
     </row>
-    <row r="89" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:89" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="30" t="s">
         <v>926</v>
       </c>
@@ -22046,7 +22046,7 @@
       <c r="CH89" s="2"/>
       <c r="CI89" s="2"/>
     </row>
-    <row r="90" spans="1:89" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:89" s="9" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="30" t="s">
         <v>879</v>
       </c>
@@ -22201,7 +22201,7 @@
       <c r="CH90" s="2"/>
       <c r="CI90" s="2"/>
     </row>
-    <row r="91" spans="1:89" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:89" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>936</v>
       </c>
@@ -22322,7 +22322,7 @@
       <c r="CH91" s="2"/>
       <c r="CI91" s="2"/>
     </row>
-    <row r="92" spans="1:89" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:89" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
         <v>908</v>
       </c>
@@ -22463,7 +22463,7 @@
       <c r="CH92" s="2"/>
       <c r="CI92" s="2"/>
     </row>
-    <row r="93" spans="1:89" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:89" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>1236</v>
       </c>
@@ -22574,9 +22574,9 @@
       <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:84" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" s="6" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
